--- a/Case3_全流程结果.xlsx
+++ b/Case3_全流程结果.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,16 +490,16 @@
         <v>2250</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5583888424472181</v>
+        <v>0.5369106699833038</v>
       </c>
       <c r="F2" t="n">
-        <v>27.91944212236091</v>
+        <v>26.84553349916519</v>
       </c>
       <c r="G2" t="n">
-        <v>34.139609220997</v>
+        <v>33.37068470895948</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="3">
@@ -510,22 +510,22 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>22.08055787763909</v>
+        <v>23.15446650083481</v>
       </c>
       <c r="D3" t="n">
-        <v>2065.030390779003</v>
+        <v>2125.79931529104</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4707998414844199</v>
+        <v>0.4494495282884979</v>
       </c>
       <c r="F3" t="n">
-        <v>10.39552314868005</v>
+        <v>10.40676404657203</v>
       </c>
       <c r="G3" t="n">
-        <v>73.28908142046681</v>
+        <v>72.40693304021784</v>
       </c>
       <c r="H3" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>11.68503472895905</v>
+        <v>12.74770245426278</v>
       </c>
       <c r="D4" t="n">
-        <v>2010.111309358536</v>
+        <v>2051.762382250823</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4304223713316878</v>
+        <v>0.4149854950263445</v>
       </c>
       <c r="F4" t="n">
-        <v>5.029500357131679</v>
+        <v>5.290111613430786</v>
       </c>
       <c r="G4" t="n">
-        <v>33.69370136978942</v>
+        <v>32.80227110875411</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="5">
@@ -562,22 +562,22 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>6.655534371827371</v>
+        <v>7.457590840831992</v>
       </c>
       <c r="D5" t="n">
-        <v>1873.817607988747</v>
+        <v>1976.360111142068</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3563105671029798</v>
+        <v>0.3510097698187835</v>
       </c>
       <c r="F5" t="n">
-        <v>2.371437226399185</v>
+        <v>2.617687244443106</v>
       </c>
       <c r="G5" t="n">
-        <v>80.67347387099511</v>
+        <v>79.80926433240306</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="6">
@@ -588,22 +588,22 @@
         <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>4.284097145428186</v>
+        <v>4.839903596388886</v>
       </c>
       <c r="D6" t="n">
-        <v>1813.434134117751</v>
+        <v>1896.840846809665</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3660455464992338</v>
+        <v>0.3582989401300637</v>
       </c>
       <c r="F6" t="n">
-        <v>1.568174680854068</v>
+        <v>1.734132328917821</v>
       </c>
       <c r="G6" t="n">
-        <v>29.84553909280654</v>
+        <v>28.98063436977529</v>
       </c>
       <c r="H6" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="7">
@@ -614,22 +614,22 @@
         <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>2.715922464574118</v>
+        <v>3.105771267471065</v>
       </c>
       <c r="D7" t="n">
-        <v>1668.158595024945</v>
+        <v>1812.43021243989</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3549442776619297</v>
+        <v>0.3526808931782132</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9640011373740681</v>
+        <v>1.095346184618926</v>
       </c>
       <c r="G7" t="n">
-        <v>32.74128341668379</v>
+        <v>31.88987763648439</v>
       </c>
       <c r="H7" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="8">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1.75192132720005</v>
+        <v>2.010425082852139</v>
       </c>
       <c r="D8" t="n">
-        <v>1529.277311608261</v>
+        <v>1734.400334803406</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3110892185479042</v>
+        <v>0.3097633851841273</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5450038366360708</v>
+        <v>0.6227560793233581</v>
       </c>
       <c r="G8" t="n">
-        <v>109.987014846745</v>
+        <v>109.1523237967153</v>
       </c>
       <c r="H8" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="9">
@@ -666,22 +666,22 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>1.206917490563979</v>
+        <v>1.387669003528781</v>
       </c>
       <c r="D9" t="n">
-        <v>1545.470296761516</v>
+        <v>1669.21501100669</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3105242679102901</v>
+        <v>0.309241048234942</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3747771701855042</v>
+        <v>0.4291242172543775</v>
       </c>
       <c r="G9" t="n">
-        <v>70.69703620907202</v>
+        <v>69.86334969179464</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="10">
@@ -692,22 +692,22 @@
         <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8321403203784753</v>
+        <v>0.9585447862744032</v>
       </c>
       <c r="D10" t="n">
-        <v>1497.643260552444</v>
+        <v>1612.221661314896</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3096340476358393</v>
+        <v>0.3094015832626499</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2576589755997714</v>
+        <v>0.2965752745014587</v>
       </c>
       <c r="G10" t="n">
-        <v>70.88517406455979</v>
+        <v>70.05350478510348</v>
       </c>
       <c r="H10" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="11">
@@ -718,22 +718,22 @@
         <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5744813447787038</v>
+        <v>0.6619695117729445</v>
       </c>
       <c r="D11" t="n">
-        <v>1462.048086487884</v>
+        <v>1557.458156529792</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3083931421391331</v>
+        <v>0.3081363284321346</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1771661070166191</v>
+        <v>0.2039768548917278</v>
       </c>
       <c r="G11" t="n">
-        <v>74.10427265160412</v>
+        <v>73.27416486025081</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="12">
@@ -744,22 +744,22 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3973152377620847</v>
+        <v>0.4579926568812167</v>
       </c>
       <c r="D12" t="n">
-        <v>1408.94381383628</v>
+        <v>1485.183991669541</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2776665766598614</v>
+        <v>0.2771202223700359</v>
       </c>
       <c r="F12" t="n">
-        <v>0.110321161924197</v>
+        <v>0.1269190269187663</v>
       </c>
       <c r="G12" t="n">
-        <v>68.54161018368917</v>
+        <v>67.71253980687649</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="13">
@@ -770,22 +770,22 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2869940758378878</v>
+        <v>0.3310736299624504</v>
       </c>
       <c r="D13" t="n">
-        <v>1348.932203652591</v>
+        <v>1406.001451862665</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2772789427796815</v>
+        <v>0.2774845580341005</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07957741393236124</v>
+        <v>0.0918678198868759</v>
       </c>
       <c r="G13" t="n">
-        <v>75.13529998776443</v>
+        <v>74.30693782073615</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="14">
@@ -796,22 +796,22 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2074166619055265</v>
+        <v>0.2392058100755745</v>
       </c>
       <c r="D14" t="n">
-        <v>1289.356903664827</v>
+        <v>1327.254514041929</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2770844156157994</v>
+        <v>0.2770238755396248</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05747192455307265</v>
+        <v>0.06626572055873108</v>
       </c>
       <c r="G14" t="n">
-        <v>69.00491996763228</v>
+        <v>68.17700179543615</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="15">
@@ -822,22 +822,22 @@
         <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1499447373524539</v>
+        <v>0.1729400895168434</v>
       </c>
       <c r="D15" t="n">
-        <v>1249.981983697194</v>
+        <v>1268.707512246493</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2770241681426307</v>
+        <v>0.2764539980010458</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04153831613242878</v>
+        <v>0.0478099791615901</v>
       </c>
       <c r="G15" t="n">
-        <v>72.41718723697537</v>
+        <v>71.58964596668932</v>
       </c>
       <c r="H15" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="16">
@@ -848,22 +848,22 @@
         <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1084064212200251</v>
+        <v>0.1251301103552533</v>
       </c>
       <c r="D16" t="n">
-        <v>1186.444796460219</v>
+        <v>1185.997866279803</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2766747902082154</v>
+        <v>0.2764615445684067</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02999332384827387</v>
+        <v>0.0345936635808285</v>
       </c>
       <c r="G16" t="n">
-        <v>66.26779001903537</v>
+        <v>65.44048627512589</v>
       </c>
       <c r="H16" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="17">
@@ -874,22 +874,22 @@
         <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07841309737175123</v>
+        <v>0.09053644677442478</v>
       </c>
       <c r="D17" t="n">
-        <v>1152.167006441184</v>
+        <v>1132.547380004677</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2460077494930871</v>
+        <v>0.245629270855295</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01929022961520682</v>
+        <v>0.02223840140703118</v>
       </c>
       <c r="G17" t="n">
-        <v>108.9366238016288</v>
+        <v>108.1095885675463</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="18">
@@ -900,22 +900,48 @@
         <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05912286775654441</v>
+        <v>0.0682980453673936</v>
       </c>
       <c r="D18" t="n">
-        <v>1182.220382639555</v>
+        <v>1080.134791437131</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2456348041792662</v>
+        <v>0.2460512213966203</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01452263404389544</v>
+        <v>0.01680481748164898</v>
       </c>
       <c r="G18" t="n">
-        <v>112.4533619857626</v>
+        <v>111.6264240785058</v>
       </c>
       <c r="H18" t="n">
-        <v>1.814440166001471e-07</v>
+        <v>-0.1653638518532643</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.05149322788574463</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1002.697367358625</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2456377672049609</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01264868152403054</v>
+      </c>
+      <c r="G19" t="n">
+        <v>101.7746168535522</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.1653542127570757</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H375"/>
+  <dimension ref="A1:H388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,16 +1021,16 @@
         <v>114.98</v>
       </c>
       <c r="E2" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F2" t="n">
-        <v>113.6660008236198</v>
+        <v>112.7608551868763</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="3">
@@ -1023,16 +1049,16 @@
         <v>111.81</v>
       </c>
       <c r="E3" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F3" t="n">
-        <v>110.5309854122523</v>
+        <v>109.6258667915639</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="4">
@@ -1051,16 +1077,16 @@
         <v>115.74</v>
       </c>
       <c r="E4" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F4" t="n">
-        <v>114.4714949032219</v>
+        <v>113.5663695962549</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="5">
@@ -1079,16 +1105,16 @@
         <v>120.12</v>
       </c>
       <c r="E5" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F5" t="n">
-        <v>118.8074885555538</v>
+        <v>117.9023512824417</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="6">
@@ -1107,16 +1133,16 @@
         <v>111.33</v>
       </c>
       <c r="E6" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F6" t="n">
-        <v>110.0429936214786</v>
+        <v>109.1378753142529</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="7">
@@ -1135,16 +1161,16 @@
         <v>111.33</v>
       </c>
       <c r="E7" t="n">
-        <v>-126.18</v>
+        <v>-43.967</v>
       </c>
       <c r="F7" t="n">
-        <v>110.0114956661479</v>
+        <v>109.1063747217338</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="8">
@@ -1163,16 +1189,16 @@
         <v>120.4</v>
       </c>
       <c r="E8" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F8" t="n">
-        <v>119.0884880062377</v>
+        <v>118.1833664181748</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="9">
@@ -1191,16 +1217,16 @@
         <v>116.34</v>
       </c>
       <c r="E9" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F9" t="n">
-        <v>115.0389974972073</v>
+        <v>114.1338614973935</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="10">
@@ -1219,16 +1245,16 @@
         <v>110.15</v>
       </c>
       <c r="E10" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F10" t="n">
-        <v>108.7909950252678</v>
+        <v>107.8858751455614</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="11">
@@ -1247,16 +1273,16 @@
         <v>115.21</v>
       </c>
       <c r="E11" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F11" t="n">
-        <v>113.9104966732331</v>
+        <v>113.0053575929588</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="12">
@@ -1275,16 +1301,16 @@
         <v>110.18</v>
       </c>
       <c r="E12" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F12" t="n">
-        <v>108.8549916073082</v>
+        <v>107.9498716145159</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="13">
@@ -1303,16 +1329,16 @@
         <v>110.17</v>
       </c>
       <c r="E13" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9374980160246</v>
+        <v>108.0323810778939</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="14">
@@ -1331,16 +1357,16 @@
         <v>113.71</v>
       </c>
       <c r="E14" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F14" t="n">
-        <v>112.4539918514675</v>
+        <v>111.5488796881581</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="15">
@@ -1359,16 +1385,16 @@
         <v>102.93</v>
       </c>
       <c r="E15" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F15" t="n">
-        <v>101.7205044552398</v>
+        <v>100.8153558250384</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="16">
@@ -1387,16 +1413,16 @@
         <v>103.88</v>
       </c>
       <c r="E16" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F16" t="n">
-        <v>102.6020039364225</v>
+        <v>101.6968742979062</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="17">
@@ -1415,16 +1441,16 @@
         <v>72.19</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.87</v>
+        <v>-12.87</v>
       </c>
       <c r="F17" t="n">
-        <v>70.7229856868597</v>
+        <v>69.8178634952308</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="18">
@@ -1443,16 +1469,16 @@
         <v>69.94</v>
       </c>
       <c r="E18" t="n">
-        <v>-8.530000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="F18" t="n">
-        <v>68.549497069937</v>
+        <v>67.64434412906479</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="19">
@@ -1471,16 +1497,16 @@
         <v>76.56999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>-15.56</v>
+        <v>4.44</v>
       </c>
       <c r="F19" t="n">
-        <v>75.14048797568819</v>
+        <v>74.23534064845775</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="20">
@@ -1499,16 +1525,16 @@
         <v>70.45999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.63000000000001</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>69.00898834189333</v>
+        <v>68.10385417532507</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="21">
@@ -1527,16 +1553,16 @@
         <v>67.94</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F21" t="n">
-        <v>66.51949829063203</v>
+        <v>65.61433963211105</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="22">
@@ -1555,16 +1581,16 @@
         <v>82.33</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.29</v>
+        <v>-0.29</v>
       </c>
       <c r="F22" t="n">
-        <v>80.81749923665211</v>
+        <v>79.91231875795611</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="23">
@@ -1583,16 +1609,16 @@
         <v>73.87</v>
       </c>
       <c r="E23" t="n">
-        <v>-8.879999999999995</v>
+        <v>11.12</v>
       </c>
       <c r="F23" t="n">
-        <v>72.4199877925772</v>
+        <v>71.51483135377127</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="24">
@@ -1611,16 +1637,16 @@
         <v>75.34</v>
       </c>
       <c r="E24" t="n">
-        <v>-18.37</v>
+        <v>1.63</v>
       </c>
       <c r="F24" t="n">
-        <v>73.97898849450553</v>
+        <v>73.07386013287685</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="25">
@@ -1639,16 +1665,16 @@
         <v>67.88</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F25" t="n">
-        <v>66.26998794512187</v>
+        <v>65.36484786960338</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="26">
@@ -1667,16 +1693,16 @@
         <v>72.28</v>
       </c>
       <c r="E26" t="n">
-        <v>-35.29</v>
+        <v>-15.29</v>
       </c>
       <c r="F26" t="n">
-        <v>70.90299346886644</v>
+        <v>69.99782367394195</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="27">
@@ -1695,16 +1721,16 @@
         <v>75.55</v>
       </c>
       <c r="E27" t="n">
-        <v>-21</v>
+        <v>-1</v>
       </c>
       <c r="F27" t="n">
-        <v>74.1160018917026</v>
+        <v>73.21085245784302</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="28">
@@ -1723,16 +1749,16 @@
         <v>31.75</v>
       </c>
       <c r="E28" t="n">
-        <v>115.43</v>
+        <v>55.43</v>
       </c>
       <c r="F28" t="n">
-        <v>30.09249114945476</v>
+        <v>29.18732617301251</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="29">
@@ -1751,16 +1777,16 @@
         <v>39.38</v>
       </c>
       <c r="E29" t="n">
-        <v>150.83</v>
+        <v>90.83</v>
       </c>
       <c r="F29" t="n">
-        <v>34.139609220997</v>
+        <v>33.37068470895948</v>
       </c>
       <c r="G29" t="n">
-        <v>27.91944212236091</v>
+        <v>26.84553349916519</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="30">
@@ -1779,16 +1805,16 @@
         <v>34.5</v>
       </c>
       <c r="E30" t="n">
-        <v>106.14</v>
+        <v>46.14</v>
       </c>
       <c r="F30" t="n">
-        <v>32.8809928889671</v>
+        <v>31.97584116047783</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="31">
@@ -1807,16 +1833,16 @@
         <v>36.04</v>
       </c>
       <c r="E31" t="n">
-        <v>102.6</v>
+        <v>42.6</v>
       </c>
       <c r="F31" t="n">
-        <v>34.39150146439859</v>
+        <v>33.48635558064326</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.24793490689686e-06</v>
+        <v>-0.1810298412907043</v>
       </c>
     </row>
     <row r="32">
@@ -1835,16 +1861,16 @@
         <v>114.98</v>
       </c>
       <c r="E32" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F32" t="n">
-        <v>113.6660046383953</v>
+        <v>112.7846660407882</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="33">
@@ -1863,16 +1889,16 @@
         <v>111.81</v>
       </c>
       <c r="E33" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F33" t="n">
-        <v>110.5310044858148</v>
+        <v>109.649697702584</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="34">
@@ -1891,16 +1917,16 @@
         <v>115.74</v>
       </c>
       <c r="E34" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F34" t="n">
-        <v>114.4714949032975</v>
+        <v>113.5901972905801</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="35">
@@ -1919,16 +1945,16 @@
         <v>120.12</v>
       </c>
       <c r="E35" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F35" t="n">
-        <v>118.807488555632</v>
+        <v>117.9261921358699</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="36">
@@ -1947,16 +1973,16 @@
         <v>111.33</v>
       </c>
       <c r="E36" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F36" t="n">
-        <v>110.0429974362526</v>
+        <v>109.1616704149789</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="37">
@@ -1975,16 +2001,16 @@
         <v>111.33</v>
       </c>
       <c r="E37" t="n">
-        <v>-126.18</v>
+        <v>-43.967</v>
       </c>
       <c r="F37" t="n">
-        <v>110.0114994809237</v>
+        <v>109.130179294331</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="38">
@@ -2003,16 +2029,16 @@
         <v>120.4</v>
       </c>
       <c r="E38" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F38" t="n">
-        <v>119.0884880063158</v>
+        <v>118.2071688448115</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="39">
@@ -2031,16 +2057,16 @@
         <v>116.34</v>
       </c>
       <c r="E39" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F39" t="n">
-        <v>115.0390013119821</v>
+        <v>114.1576989434127</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="40">
@@ -2059,16 +2085,16 @@
         <v>110.15</v>
       </c>
       <c r="E40" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F40" t="n">
-        <v>108.7909950253488</v>
+        <v>107.9096918065313</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="41">
@@ -2087,16 +2113,16 @@
         <v>115.21</v>
       </c>
       <c r="E41" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F41" t="n">
-        <v>113.9105004880078</v>
+        <v>113.0291945278893</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="42">
@@ -2115,16 +2141,16 @@
         <v>110.18</v>
       </c>
       <c r="E42" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F42" t="n">
-        <v>108.8549916073872</v>
+        <v>107.9736781018077</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="43">
@@ -2143,16 +2169,16 @@
         <v>110.17</v>
       </c>
       <c r="E43" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F43" t="n">
-        <v>108.937498016098</v>
+        <v>108.0561980388954</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="44">
@@ -2171,16 +2197,16 @@
         <v>113.71</v>
       </c>
       <c r="E44" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F44" t="n">
-        <v>112.4539918515423</v>
+        <v>111.5727036952475</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="45">
@@ -2199,16 +2225,16 @@
         <v>102.93</v>
       </c>
       <c r="E45" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F45" t="n">
-        <v>101.7205044553119</v>
+        <v>100.8392040245861</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="46">
@@ -2227,16 +2253,16 @@
         <v>103.88</v>
       </c>
       <c r="E46" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F46" t="n">
-        <v>102.6020039364986</v>
+        <v>101.7206667821308</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="47">
@@ -2255,16 +2281,16 @@
         <v>72.19</v>
       </c>
       <c r="E47" t="n">
-        <v>-22.87</v>
+        <v>-12.87</v>
       </c>
       <c r="F47" t="n">
-        <v>70.72298950164438</v>
+        <v>69.84167430279565</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="48">
@@ -2283,16 +2309,16 @@
         <v>69.94</v>
       </c>
       <c r="E48" t="n">
-        <v>-8.530000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="F48" t="n">
-        <v>68.54949707001985</v>
+        <v>67.66817016830555</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="49">
@@ -2311,16 +2337,16 @@
         <v>76.56999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.56</v>
+        <v>4.44</v>
       </c>
       <c r="F49" t="n">
-        <v>75.14049179047063</v>
+        <v>74.25917826498244</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="50">
@@ -2339,16 +2365,16 @@
         <v>70.45999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>-29.63000000000001</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>69.00898834197977</v>
+        <v>68.1276678567956</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="51">
@@ -2367,16 +2393,16 @@
         <v>67.94</v>
       </c>
       <c r="E51" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F51" t="n">
-        <v>66.51950210541393</v>
+        <v>65.63817463213431</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="52">
@@ -2395,16 +2421,16 @@
         <v>82.33</v>
       </c>
       <c r="E52" t="n">
-        <v>-20.29</v>
+        <v>-0.29</v>
       </c>
       <c r="F52" t="n">
-        <v>80.81749923674224</v>
+        <v>79.9361430530038</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="53">
@@ -2423,16 +2449,16 @@
         <v>73.87</v>
       </c>
       <c r="E53" t="n">
-        <v>-8.879999999999995</v>
+        <v>11.12</v>
       </c>
       <c r="F53" t="n">
-        <v>72.41999160736086</v>
+        <v>71.5386674469475</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="54">
@@ -2451,16 +2477,16 @@
         <v>75.34</v>
       </c>
       <c r="E54" t="n">
-        <v>-18.37</v>
+        <v>1.63</v>
       </c>
       <c r="F54" t="n">
-        <v>73.28908142046681</v>
+        <v>72.40693304021784</v>
       </c>
       <c r="G54" t="n">
-        <v>10.39552314868005</v>
+        <v>10.40676404657203</v>
       </c>
       <c r="H54" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="55">
@@ -2479,16 +2505,16 @@
         <v>67.88</v>
       </c>
       <c r="E55" t="n">
-        <v>-31.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F55" t="n">
-        <v>66.26998794521781</v>
+        <v>65.38862513029149</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="56">
@@ -2507,16 +2533,16 @@
         <v>72.28</v>
       </c>
       <c r="E56" t="n">
-        <v>-35.29</v>
+        <v>-15.29</v>
       </c>
       <c r="F56" t="n">
-        <v>70.90299346894848</v>
+        <v>70.02169143585999</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="57">
@@ -2535,16 +2561,16 @@
         <v>75.55</v>
       </c>
       <c r="E57" t="n">
-        <v>-21</v>
+        <v>-1</v>
       </c>
       <c r="F57" t="n">
-        <v>74.11600570648531</v>
+        <v>73.23465337155261</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="58">
@@ -2563,16 +2589,16 @@
         <v>31.75</v>
       </c>
       <c r="E58" t="n">
-        <v>115.43</v>
+        <v>55.43</v>
       </c>
       <c r="F58" t="n">
-        <v>30.09249114955351</v>
+        <v>29.21115572140606</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="59">
@@ -2591,16 +2617,16 @@
         <v>34.5</v>
       </c>
       <c r="E59" t="n">
-        <v>106.14</v>
+        <v>46.14</v>
       </c>
       <c r="F59" t="n">
-        <v>32.88099288906356</v>
+        <v>31.99965927374473</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="60">
@@ -2619,16 +2645,16 @@
         <v>36.04</v>
       </c>
       <c r="E60" t="n">
-        <v>102.6</v>
+        <v>42.6</v>
       </c>
       <c r="F60" t="n">
-        <v>34.39150146449681</v>
+        <v>33.51011394855801</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>-7.917689295053034e-07</v>
+        <v>-0.1762657337989792</v>
       </c>
     </row>
     <row r="61">
@@ -2647,16 +2673,16 @@
         <v>114.98</v>
       </c>
       <c r="E61" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F61" t="n">
-        <v>113.6659886909273</v>
+        <v>112.8108791752292</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="62">
@@ -2675,16 +2701,16 @@
         <v>111.81</v>
       </c>
       <c r="E62" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F62" t="n">
-        <v>110.5309886582883</v>
+        <v>109.6759131212567</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="63">
@@ -2703,16 +2729,16 @@
         <v>115.74</v>
       </c>
       <c r="E63" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F63" t="n">
-        <v>114.4714943701682</v>
+        <v>113.616413385234</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="64">
@@ -2731,16 +2757,16 @@
         <v>120.12</v>
       </c>
       <c r="E64" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F64" t="n">
-        <v>118.8074878718887</v>
+        <v>117.9524053645481</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="65">
@@ -2759,16 +2785,16 @@
         <v>111.33</v>
       </c>
       <c r="E65" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F65" t="n">
-        <v>110.0429968399326</v>
+        <v>109.1879158220611</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="66">
@@ -2787,16 +2813,16 @@
         <v>111.33</v>
       </c>
       <c r="E66" t="n">
-        <v>-126.18</v>
+        <v>-43.967</v>
       </c>
       <c r="F66" t="n">
-        <v>110.0114949617638</v>
+        <v>109.1563921321936</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="67">
@@ -2815,16 +2841,16 @@
         <v>120.4</v>
       </c>
       <c r="E67" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F67" t="n">
-        <v>119.0884873260041</v>
+        <v>118.2334126559264</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="68">
@@ -2843,16 +2869,16 @@
         <v>116.34</v>
       </c>
       <c r="E68" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F68" t="n">
-        <v>115.0389968527929</v>
+        <v>114.1839129199038</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="69">
@@ -2871,16 +2897,16 @@
         <v>110.15</v>
       </c>
       <c r="E69" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F69" t="n">
-        <v>108.7909941822827</v>
+        <v>107.9359020084733</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="70">
@@ -2899,16 +2925,16 @@
         <v>115.21</v>
       </c>
       <c r="E70" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F70" t="n">
-        <v>113.910496033966</v>
+        <v>113.0554086047199</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="71">
@@ -2927,16 +2953,16 @@
         <v>110.18</v>
       </c>
       <c r="E71" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F71" t="n">
-        <v>108.854990880831</v>
+        <v>107.9998905178141</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="72">
@@ -2955,16 +2981,16 @@
         <v>110.17</v>
       </c>
       <c r="E72" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F72" t="n">
-        <v>108.9374976065534</v>
+        <v>108.0824164773315</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="73">
@@ -2983,16 +3009,16 @@
         <v>113.71</v>
       </c>
       <c r="E73" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F73" t="n">
-        <v>112.4539913614375</v>
+        <v>111.5989206025752</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="74">
@@ -3011,16 +3037,16 @@
         <v>102.93</v>
       </c>
       <c r="E74" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F74" t="n">
-        <v>101.7204888659525</v>
+        <v>100.8654315994557</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="75">
@@ -3039,16 +3065,16 @@
         <v>103.88</v>
       </c>
       <c r="E75" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F75" t="n">
-        <v>102.6019919271009</v>
+        <v>101.7468822673266</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="76">
@@ -3067,16 +3093,16 @@
         <v>72.19</v>
       </c>
       <c r="E76" t="n">
-        <v>-22.87</v>
+        <v>-12.87</v>
       </c>
       <c r="F76" t="n">
-        <v>70.72298828824752</v>
+        <v>69.8678774733953</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="77">
@@ -3095,16 +3121,16 @@
         <v>69.94</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.530000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="F77" t="n">
-        <v>68.54949230411388</v>
+        <v>67.69438595941153</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="78">
@@ -3123,16 +3149,16 @@
         <v>76.56999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.56</v>
+        <v>4.44</v>
       </c>
       <c r="F78" t="n">
-        <v>75.14049070559416</v>
+        <v>74.28538387970177</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="79">
@@ -3151,16 +3177,16 @@
         <v>70.45999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>-29.63000000000001</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>69.0089871834063</v>
+        <v>68.15387207178661</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="80">
@@ -3179,16 +3205,16 @@
         <v>67.94</v>
       </c>
       <c r="E80" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F80" t="n">
-        <v>66.51948579276247</v>
+        <v>65.66438847027577</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="81">
@@ -3207,16 +3233,16 @@
         <v>82.33</v>
       </c>
       <c r="E81" t="n">
-        <v>-20.29</v>
+        <v>-0.29</v>
       </c>
       <c r="F81" t="n">
-        <v>80.81749405275686</v>
+        <v>79.9623814086989</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="82">
@@ -3235,16 +3261,16 @@
         <v>73.87</v>
       </c>
       <c r="E82" t="n">
-        <v>-8.879999999999995</v>
+        <v>11.12</v>
       </c>
       <c r="F82" t="n">
-        <v>72.41998663752169</v>
+        <v>71.56487936316496</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="83">
@@ -3263,16 +3289,16 @@
         <v>67.88</v>
       </c>
       <c r="E83" t="n">
-        <v>-31.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F83" t="n">
-        <v>66.26998242706304</v>
+        <v>65.41485713759818</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="84">
@@ -3291,16 +3317,16 @@
         <v>72.28</v>
       </c>
       <c r="E84" t="n">
-        <v>-35.29</v>
+        <v>-15.29</v>
       </c>
       <c r="F84" t="n">
-        <v>70.90299256419588</v>
+        <v>70.04790046813105</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="85">
@@ -3319,16 +3345,16 @@
         <v>75.55</v>
       </c>
       <c r="E85" t="n">
-        <v>-21</v>
+        <v>-1</v>
       </c>
       <c r="F85" t="n">
-        <v>74.11598553268047</v>
+        <v>73.26089683666612</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="86">
@@ -3347,16 +3373,16 @@
         <v>31.75</v>
       </c>
       <c r="E86" t="n">
-        <v>115.43</v>
+        <v>55.43</v>
       </c>
       <c r="F86" t="n">
-        <v>30.09247402468252</v>
+        <v>29.2373388607522</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="87">
@@ -3375,16 +3401,16 @@
         <v>34.5</v>
       </c>
       <c r="E87" t="n">
-        <v>106.14</v>
+        <v>46.14</v>
       </c>
       <c r="F87" t="n">
-        <v>32.88097971084181</v>
+        <v>32.02585255843702</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="88">
@@ -3403,16 +3429,16 @@
         <v>36.04</v>
       </c>
       <c r="E88" t="n">
-        <v>102.6</v>
+        <v>42.6</v>
       </c>
       <c r="F88" t="n">
-        <v>33.69370136978942</v>
+        <v>32.80227110875411</v>
       </c>
       <c r="G88" t="n">
-        <v>5.029500357131679</v>
+        <v>5.290111613430786</v>
       </c>
       <c r="H88" t="n">
-        <v>-2.189687201163693e-06</v>
+        <v>-0.1710228249590129</v>
       </c>
     </row>
     <row r="89">
@@ -3431,16 +3457,16 @@
         <v>114.98</v>
       </c>
       <c r="E89" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F89" t="n">
-        <v>113.6659920279534</v>
+        <v>112.8167847141812</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="90">
@@ -3459,16 +3485,16 @@
         <v>111.81</v>
       </c>
       <c r="E90" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F90" t="n">
-        <v>110.5309919064314</v>
+        <v>109.6818141865919</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="91">
@@ -3487,16 +3513,16 @@
         <v>115.74</v>
       </c>
       <c r="E91" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F91" t="n">
-        <v>114.4714861479205</v>
+        <v>113.6223131093062</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="92">
@@ -3515,16 +3541,16 @@
         <v>120.12</v>
       </c>
       <c r="E92" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F92" t="n">
-        <v>118.8074950200093</v>
+        <v>117.958280202904</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="93">
@@ -3543,16 +3569,16 @@
         <v>111.33</v>
       </c>
       <c r="E93" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F93" t="n">
-        <v>110.0430001084098</v>
+        <v>109.1937873987033</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="94">
@@ -3571,16 +3597,16 @@
         <v>111.33</v>
       </c>
       <c r="E94" t="n">
-        <v>-126.18</v>
+        <v>-43.967</v>
       </c>
       <c r="F94" t="n">
-        <v>110.0114868664831</v>
+        <v>109.1623058853691</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="95">
@@ -3599,16 +3625,16 @@
         <v>120.4</v>
       </c>
       <c r="E95" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F95" t="n">
-        <v>119.0884944715817</v>
+        <v>118.2392873665849</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="96">
@@ -3627,16 +3653,16 @@
         <v>116.34</v>
       </c>
       <c r="E96" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F96" t="n">
-        <v>115.0389887130707</v>
+        <v>114.1897862892991</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="97">
@@ -3655,16 +3681,16 @@
         <v>110.15</v>
       </c>
       <c r="E97" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F97" t="n">
-        <v>108.7909976336117</v>
+        <v>107.9417751576954</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="98">
@@ -3683,16 +3709,16 @@
         <v>115.21</v>
       </c>
       <c r="E98" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F98" t="n">
-        <v>113.9104878904293</v>
+        <v>113.0613122916191</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="99">
@@ -3711,16 +3737,16 @@
         <v>110.18</v>
       </c>
       <c r="E99" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F99" t="n">
-        <v>108.8549942458201</v>
+        <v>108.0058050998005</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="100">
@@ -3739,16 +3765,16 @@
         <v>110.17</v>
       </c>
       <c r="E100" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F100" t="n">
-        <v>108.9374854779709</v>
+        <v>108.0883115984251</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="101">
@@ -3767,16 +3793,16 @@
         <v>113.71</v>
       </c>
       <c r="E101" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F101" t="n">
-        <v>112.4539945512037</v>
+        <v>111.6047882163903</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="102">
@@ -3795,16 +3821,16 @@
         <v>102.93</v>
       </c>
       <c r="E102" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F102" t="n">
-        <v>101.7204919376013</v>
+        <v>100.8712856282235</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="103">
@@ -3823,16 +3849,16 @@
         <v>103.88</v>
       </c>
       <c r="E103" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F103" t="n">
-        <v>102.6019951727011</v>
+        <v>101.7527832033001</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="104">
@@ -3851,16 +3877,16 @@
         <v>72.19</v>
       </c>
       <c r="E104" t="n">
-        <v>-22.87</v>
+        <v>-12.87</v>
       </c>
       <c r="F104" t="n">
-        <v>70.72299582876317</v>
+        <v>69.87377206492468</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="105">
@@ -3879,16 +3905,16 @@
         <v>69.94</v>
       </c>
       <c r="E105" t="n">
-        <v>-8.530000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="F105" t="n">
-        <v>68.54948439168497</v>
+        <v>67.70030127773664</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="106">
@@ -3907,16 +3933,16 @@
         <v>76.56999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>-15.56</v>
+        <v>4.44</v>
       </c>
       <c r="F106" t="n">
-        <v>75.14049815086945</v>
+        <v>74.29126603878559</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="107">
@@ -3935,16 +3961,16 @@
         <v>70.45999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>-29.63000000000001</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>69.00899468329494</v>
+        <v>68.15975698013197</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="108">
@@ -3963,16 +3989,16 @@
         <v>67.94</v>
       </c>
       <c r="E108" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F108" t="n">
-        <v>66.51949321516075</v>
+        <v>65.67026947675785</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="109">
@@ -3991,16 +4017,16 @@
         <v>82.33</v>
       </c>
       <c r="E109" t="n">
-        <v>-20.29</v>
+        <v>-0.29</v>
       </c>
       <c r="F109" t="n">
-        <v>80.67347387099511</v>
+        <v>79.80926433240306</v>
       </c>
       <c r="G109" t="n">
-        <v>2.371437226399185</v>
+        <v>2.617687244443106</v>
       </c>
       <c r="H109" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="110">
@@ -4019,16 +4045,16 @@
         <v>73.87</v>
       </c>
       <c r="E110" t="n">
-        <v>-8.879999999999995</v>
+        <v>11.12</v>
       </c>
       <c r="F110" t="n">
-        <v>72.41999413486737</v>
+        <v>71.57076414381288</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="111">
@@ -4047,16 +4073,16 @@
         <v>67.88</v>
       </c>
       <c r="E111" t="n">
-        <v>-31.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F111" t="n">
-        <v>66.26999033073935</v>
+        <v>65.42072423299253</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="112">
@@ -4075,16 +4101,16 @@
         <v>72.28</v>
       </c>
       <c r="E112" t="n">
-        <v>-35.29</v>
+        <v>-15.29</v>
       </c>
       <c r="F112" t="n">
-        <v>70.90299606123786</v>
+        <v>70.05377591512628</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="113">
@@ -4103,16 +4129,16 @@
         <v>75.55</v>
       </c>
       <c r="E113" t="n">
-        <v>-21</v>
+        <v>-1</v>
       </c>
       <c r="F113" t="n">
-        <v>74.11599680425724</v>
+        <v>73.26677957659811</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="114">
@@ -4131,16 +4157,16 @@
         <v>31.75</v>
       </c>
       <c r="E114" t="n">
-        <v>115.43</v>
+        <v>55.43</v>
       </c>
       <c r="F114" t="n">
-        <v>30.09248777087373</v>
+        <v>29.24325780843179</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="115">
@@ -4159,16 +4185,16 @@
         <v>34.5</v>
       </c>
       <c r="E115" t="n">
-        <v>106.14</v>
+        <v>46.14</v>
       </c>
       <c r="F115" t="n">
-        <v>32.88098763735406</v>
+        <v>32.03175894597363</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>-1.516381211777825e-06</v>
+        <v>-0.1698438041532285</v>
       </c>
     </row>
     <row r="116">
@@ -4187,16 +4213,16 @@
         <v>114.98</v>
       </c>
       <c r="E116" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F116" t="n">
-        <v>113.6659951017831</v>
+        <v>112.8272916021747</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="117">
@@ -4215,16 +4241,16 @@
         <v>111.81</v>
       </c>
       <c r="E117" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F117" t="n">
-        <v>110.5309949491991</v>
+        <v>109.6922908876017</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="118">
@@ -4243,16 +4269,16 @@
         <v>115.74</v>
       </c>
       <c r="E118" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F118" t="n">
-        <v>114.4714949034239</v>
+        <v>113.6327822782741</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="119">
@@ -4271,16 +4297,16 @@
         <v>120.12</v>
       </c>
       <c r="E119" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F119" t="n">
-        <v>118.8074980925059</v>
+        <v>117.9687871058778</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="120">
@@ -4299,16 +4325,16 @@
         <v>111.33</v>
       </c>
       <c r="E120" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F120" t="n">
-        <v>110.0429974363808</v>
+        <v>109.2042945384215</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="121">
@@ -4327,16 +4353,16 @@
         <v>111.33</v>
       </c>
       <c r="E121" t="n">
-        <v>-126.18</v>
+        <v>-43.967</v>
       </c>
       <c r="F121" t="n">
-        <v>110.0114994810551</v>
+        <v>109.172812731493</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="122">
@@ -4355,16 +4381,16 @@
         <v>120.4</v>
       </c>
       <c r="E122" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F122" t="n">
-        <v>119.0884975431896</v>
+        <v>118.2497942785782</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="123">
@@ -4383,16 +4409,16 @@
         <v>116.34</v>
       </c>
       <c r="E123" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F123" t="n">
-        <v>115.0389917753685</v>
+        <v>114.2002932986453</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="124">
@@ -4411,16 +4437,16 @@
         <v>110.15</v>
       </c>
       <c r="E124" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F124" t="n">
-        <v>108.7909950254842</v>
+        <v>107.9522892625946</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="125">
@@ -4439,16 +4465,16 @@
         <v>115.21</v>
       </c>
       <c r="E125" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F125" t="n">
-        <v>113.9105004881372</v>
+        <v>113.0717888023485</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="126">
@@ -4467,16 +4493,16 @@
         <v>110.18</v>
       </c>
       <c r="E126" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F126" t="n">
-        <v>108.8549916075192</v>
+        <v>108.016311886016</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="127">
@@ -4495,16 +4521,16 @@
         <v>110.17</v>
       </c>
       <c r="E127" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F127" t="n">
-        <v>108.9374980162209</v>
+        <v>108.098788730885</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="128">
@@ -4523,16 +4549,16 @@
         <v>113.71</v>
       </c>
       <c r="E128" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F128" t="n">
-        <v>112.4539918516675</v>
+        <v>111.6152956437419</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="129">
@@ -4551,16 +4577,16 @@
         <v>102.93</v>
       </c>
       <c r="E129" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F129" t="n">
-        <v>101.7204949186892</v>
+        <v>100.8817934870252</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="130">
@@ -4579,16 +4605,16 @@
         <v>103.88</v>
       </c>
       <c r="E130" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F130" t="n">
-        <v>102.6019943998828</v>
+        <v>101.763298060302</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="131">
@@ -4607,16 +4633,16 @@
         <v>72.19</v>
       </c>
       <c r="E131" t="n">
-        <v>-22.87</v>
+        <v>-12.87</v>
       </c>
       <c r="F131" t="n">
-        <v>70.72299903853373</v>
+        <v>69.88427753415685</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="132">
@@ -4635,16 +4661,16 @@
         <v>69.94</v>
       </c>
       <c r="E132" t="n">
-        <v>-8.530000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="F132" t="n">
-        <v>68.54949707015841</v>
+        <v>67.71079982627134</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="133">
@@ -4663,16 +4689,16 @@
         <v>76.56999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>-15.56</v>
+        <v>4.44</v>
       </c>
       <c r="F133" t="n">
-        <v>75.14049179061307</v>
+        <v>74.30177185555955</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="134">
@@ -4691,16 +4717,16 @@
         <v>70.45999999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>-29.63000000000001</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>69.00899787886753</v>
+        <v>68.17029311381717</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="135">
@@ -4719,16 +4745,16 @@
         <v>67.94</v>
       </c>
       <c r="E135" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F135" t="n">
-        <v>66.51950210555549</v>
+        <v>65.68077537744009</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="136">
@@ -4747,16 +4773,16 @@
         <v>73.87</v>
       </c>
       <c r="E136" t="n">
-        <v>-8.879999999999995</v>
+        <v>11.12</v>
       </c>
       <c r="F136" t="n">
-        <v>72.42000114424852</v>
+        <v>71.58126977030631</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="137">
@@ -4775,16 +4801,16 @@
         <v>67.88</v>
       </c>
       <c r="E137" t="n">
-        <v>-31.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F137" t="n">
-        <v>66.2699974821214</v>
+        <v>65.43126652580858</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="138">
@@ -4803,16 +4829,16 @@
         <v>72.28</v>
       </c>
       <c r="E138" t="n">
-        <v>-35.29</v>
+        <v>-15.29</v>
       </c>
       <c r="F138" t="n">
-        <v>70.9029934690857</v>
+        <v>70.06428985374482</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="139">
@@ -4831,16 +4857,16 @@
         <v>75.55</v>
       </c>
       <c r="E139" t="n">
-        <v>-21</v>
+        <v>-1</v>
       </c>
       <c r="F139" t="n">
-        <v>74.11599616988504</v>
+        <v>73.27729298487789</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="140">
@@ -4859,16 +4885,16 @@
         <v>31.75</v>
       </c>
       <c r="E140" t="n">
-        <v>115.43</v>
+        <v>55.43</v>
       </c>
       <c r="F140" t="n">
-        <v>29.84553909280654</v>
+        <v>28.98063436977529</v>
       </c>
       <c r="G140" t="n">
-        <v>1.568174680854068</v>
+        <v>1.734132328917821</v>
       </c>
       <c r="H140" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="141">
@@ -4887,16 +4913,16 @@
         <v>34.5</v>
       </c>
       <c r="E141" t="n">
-        <v>106.14</v>
+        <v>46.14</v>
       </c>
       <c r="F141" t="n">
-        <v>32.88099670392216</v>
+        <v>32.04226300392806</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>-7.37084932168523e-07</v>
+        <v>-0.1677427806537938</v>
       </c>
     </row>
     <row r="142">
@@ -4915,16 +4941,16 @@
         <v>114.98</v>
       </c>
       <c r="E142" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F142" t="n">
-        <v>113.6659931945321</v>
+        <v>112.833654327947</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="143">
@@ -4943,16 +4969,16 @@
         <v>111.81</v>
       </c>
       <c r="E143" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F143" t="n">
-        <v>110.5309930419455</v>
+        <v>109.6986483536053</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="144">
@@ -4971,16 +4997,16 @@
         <v>115.74</v>
       </c>
       <c r="E144" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F144" t="n">
-        <v>114.4714949035181</v>
+        <v>113.6391431293675</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="145">
@@ -4999,16 +5025,16 @@
         <v>120.12</v>
       </c>
       <c r="E145" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F145" t="n">
-        <v>118.8074961852548</v>
+        <v>117.9751497690451</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="146">
@@ -5027,16 +5053,16 @@
         <v>111.33</v>
       </c>
       <c r="E146" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F146" t="n">
-        <v>110.0429955291278</v>
+        <v>109.2106561504018</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="147">
@@ -5055,16 +5081,16 @@
         <v>111.33</v>
       </c>
       <c r="E147" t="n">
-        <v>-126.18</v>
+        <v>-43.967</v>
       </c>
       <c r="F147" t="n">
-        <v>110.011499481153</v>
+        <v>109.1791374962323</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="148">
@@ -5083,16 +5109,16 @@
         <v>120.4</v>
       </c>
       <c r="E148" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F148" t="n">
-        <v>119.088497543287</v>
+        <v>118.2561378259506</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="149">
@@ -5111,16 +5137,16 @@
         <v>116.34</v>
       </c>
       <c r="E149" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F149" t="n">
-        <v>115.0389994048597</v>
+        <v>114.20663641641</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="150">
@@ -5139,16 +5165,16 @@
         <v>110.15</v>
       </c>
       <c r="E150" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F150" t="n">
-        <v>108.7909931182365</v>
+        <v>107.9586309487944</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="151">
@@ -5167,16 +5193,16 @@
         <v>115.21</v>
       </c>
       <c r="E151" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F151" t="n">
-        <v>113.9105004882338</v>
+        <v>113.0781471136009</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="152">
@@ -5195,16 +5221,16 @@
         <v>110.18</v>
       </c>
       <c r="E152" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F152" t="n">
-        <v>108.8549916076176</v>
+        <v>108.0226369175471</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="153">
@@ -5223,16 +5249,16 @@
         <v>110.17</v>
       </c>
       <c r="E153" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F153" t="n">
-        <v>108.9374961089638</v>
+        <v>108.1051442864864</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="154">
@@ -5251,16 +5277,16 @@
         <v>113.71</v>
       </c>
       <c r="E154" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F154" t="n">
-        <v>112.4539994811553</v>
+        <v>111.6216369100756</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="155">
@@ -5279,16 +5305,16 @@
         <v>102.93</v>
       </c>
       <c r="E155" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F155" t="n">
-        <v>101.7204930114304</v>
+        <v>100.8881290244945</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="156">
@@ -5307,16 +5333,16 @@
         <v>103.88</v>
       </c>
       <c r="E156" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F156" t="n">
-        <v>102.6019943999777</v>
+        <v>101.7696364123934</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="157">
@@ -5335,16 +5361,16 @@
         <v>72.19</v>
       </c>
       <c r="E157" t="n">
-        <v>-22.87</v>
+        <v>-12.87</v>
       </c>
       <c r="F157" t="n">
-        <v>70.7229990386427</v>
+        <v>69.89064273541315</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="158">
@@ -5363,16 +5389,16 @@
         <v>69.94</v>
       </c>
       <c r="E158" t="n">
-        <v>-8.530000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="F158" t="n">
-        <v>68.54949707026169</v>
+        <v>67.71712755071776</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="159">
@@ -5391,16 +5417,16 @@
         <v>76.56999999999999</v>
       </c>
       <c r="E159" t="n">
-        <v>-15.56</v>
+        <v>4.44</v>
       </c>
       <c r="F159" t="n">
-        <v>75.14049179071925</v>
+        <v>74.30813933174753</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="160">
@@ -5419,16 +5445,16 @@
         <v>70.45999999999999</v>
       </c>
       <c r="E160" t="n">
-        <v>-29.63000000000001</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="F160" t="n">
-        <v>69.00899787897531</v>
+        <v>68.17662714370283</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="161">
@@ -5447,16 +5473,16 @@
         <v>67.94</v>
       </c>
       <c r="E161" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F161" t="n">
-        <v>66.51950210566099</v>
+        <v>65.68714248299135</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="162">
@@ -5475,16 +5501,16 @@
         <v>73.87</v>
       </c>
       <c r="E162" t="n">
-        <v>-8.879999999999995</v>
+        <v>11.12</v>
       </c>
       <c r="F162" t="n">
-        <v>72.41999923700757</v>
+        <v>71.58763808986056</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="163">
@@ -5503,16 +5529,16 @@
         <v>67.88</v>
       </c>
       <c r="E163" t="n">
-        <v>-31.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F163" t="n">
-        <v>66.26999557489235</v>
+        <v>65.43762616760829</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="164">
@@ -5531,16 +5557,16 @@
         <v>72.28</v>
       </c>
       <c r="E164" t="n">
-        <v>-35.29</v>
+        <v>-15.29</v>
       </c>
       <c r="F164" t="n">
-        <v>70.90300109858251</v>
+        <v>70.07062846288639</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="165">
@@ -5559,16 +5585,16 @@
         <v>75.55</v>
       </c>
       <c r="E165" t="n">
-        <v>-21</v>
+        <v>-1</v>
       </c>
       <c r="F165" t="n">
-        <v>74.11599616999155</v>
+        <v>73.28363775612563</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="166">
@@ -5587,16 +5613,16 @@
         <v>34.5</v>
       </c>
       <c r="E166" t="n">
-        <v>106.14</v>
+        <v>46.14</v>
       </c>
       <c r="F166" t="n">
-        <v>32.74128341668379</v>
+        <v>31.88987763648439</v>
       </c>
       <c r="G166" t="n">
-        <v>0.9640011373740681</v>
+        <v>1.095346184618926</v>
       </c>
       <c r="H166" t="n">
-        <v>-7.104761993408093e-07</v>
+        <v>-0.1664723338900194</v>
       </c>
     </row>
     <row r="167">
@@ -5615,16 +5641,16 @@
         <v>114.98</v>
       </c>
       <c r="E167" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F167" t="n">
-        <v>113.6659931945245</v>
+        <v>112.8348069637073</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="168">
@@ -5643,16 +5669,16 @@
         <v>111.81</v>
       </c>
       <c r="E168" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F168" t="n">
-        <v>110.5309930419381</v>
+        <v>109.6998002811762</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="169">
@@ -5671,16 +5697,16 @@
         <v>115.74</v>
       </c>
       <c r="E169" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F169" t="n">
-        <v>114.4714949035108</v>
+        <v>113.6403101012605</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="170">
@@ -5699,16 +5725,16 @@
         <v>120.12</v>
       </c>
       <c r="E170" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F170" t="n">
-        <v>118.8074961852472</v>
+        <v>117.9763023734092</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="171">
@@ -5727,16 +5753,16 @@
         <v>111.33</v>
       </c>
       <c r="E171" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F171" t="n">
-        <v>110.0429955291204</v>
+        <v>109.2118120552866</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="172">
@@ -5755,16 +5781,16 @@
         <v>111.33</v>
       </c>
       <c r="E172" t="n">
-        <v>-126.18</v>
+        <v>-43.967</v>
       </c>
       <c r="F172" t="n">
-        <v>109.987014846745</v>
+        <v>109.1523237967153</v>
       </c>
       <c r="G172" t="n">
-        <v>0.5450038366360708</v>
+        <v>0.6227560793233581</v>
       </c>
       <c r="H172" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="173">
@@ -5783,16 +5809,16 @@
         <v>120.4</v>
       </c>
       <c r="E173" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F173" t="n">
-        <v>119.0884975432795</v>
+        <v>118.2573132994867</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="174">
@@ -5811,16 +5837,16 @@
         <v>116.34</v>
       </c>
       <c r="E174" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F174" t="n">
-        <v>115.0389994048522</v>
+        <v>114.2078078611557</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="175">
@@ -5839,16 +5865,16 @@
         <v>110.15</v>
       </c>
       <c r="E175" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F175" t="n">
-        <v>108.7909931182287</v>
+        <v>107.9598073828914</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="176">
@@ -5867,16 +5893,16 @@
         <v>115.21</v>
       </c>
       <c r="E176" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F176" t="n">
-        <v>113.9105004882263</v>
+        <v>113.0792956393682</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="177">
@@ -5895,16 +5921,16 @@
         <v>110.18</v>
       </c>
       <c r="E177" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F177" t="n">
-        <v>108.85499160761</v>
+        <v>108.0238088473956</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="178">
@@ -5923,16 +5949,16 @@
         <v>110.17</v>
       </c>
       <c r="E178" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F178" t="n">
-        <v>108.9374961089567</v>
+        <v>108.1063105301094</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="179">
@@ -5951,16 +5977,16 @@
         <v>113.71</v>
       </c>
       <c r="E179" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F179" t="n">
-        <v>112.453999481148</v>
+        <v>111.622807444066</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="180">
@@ -5979,16 +6005,16 @@
         <v>102.93</v>
       </c>
       <c r="E180" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F180" t="n">
-        <v>101.7204930114235</v>
+        <v>100.8893138762074</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="181">
@@ -6007,16 +6033,16 @@
         <v>103.88</v>
       </c>
       <c r="E181" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F181" t="n">
-        <v>102.6019943999704</v>
+        <v>101.7708073925562</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="182">
@@ -6035,16 +6061,16 @@
         <v>72.19</v>
       </c>
       <c r="E182" t="n">
-        <v>-22.87</v>
+        <v>-12.87</v>
       </c>
       <c r="F182" t="n">
-        <v>70.72299903863424</v>
+        <v>69.89181372327079</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="183">
@@ -6063,16 +6089,16 @@
         <v>69.94</v>
       </c>
       <c r="E183" t="n">
-        <v>-8.530000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="F183" t="n">
-        <v>68.54949707025369</v>
+        <v>67.71829699118797</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="184">
@@ -6091,16 +6117,16 @@
         <v>76.56999999999999</v>
       </c>
       <c r="E184" t="n">
-        <v>-15.56</v>
+        <v>4.44</v>
       </c>
       <c r="F184" t="n">
-        <v>75.14049179071102</v>
+        <v>74.30929430340616</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="185">
@@ -6119,16 +6145,16 @@
         <v>70.45999999999999</v>
       </c>
       <c r="E185" t="n">
-        <v>-29.63000000000001</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="F185" t="n">
-        <v>69.00899787896695</v>
+        <v>68.17780162333104</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="186">
@@ -6147,16 +6173,16 @@
         <v>67.94</v>
       </c>
       <c r="E186" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F186" t="n">
-        <v>66.51950210565282</v>
+        <v>65.68829345642041</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="187">
@@ -6175,16 +6201,16 @@
         <v>73.87</v>
       </c>
       <c r="E187" t="n">
-        <v>-8.879999999999995</v>
+        <v>11.12</v>
       </c>
       <c r="F187" t="n">
-        <v>72.41999923699923</v>
+        <v>71.58879347629569</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="188">
@@ -6203,16 +6229,16 @@
         <v>67.88</v>
       </c>
       <c r="E188" t="n">
-        <v>-31.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F188" t="n">
-        <v>66.26999557488308</v>
+        <v>65.43880004718963</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="189">
@@ -6231,16 +6257,16 @@
         <v>72.28</v>
       </c>
       <c r="E189" t="n">
-        <v>-35.29</v>
+        <v>-15.29</v>
       </c>
       <c r="F189" t="n">
-        <v>70.90300109857458</v>
+        <v>70.0718205184864</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="190">
@@ -6259,16 +6285,16 @@
         <v>75.55</v>
       </c>
       <c r="E190" t="n">
-        <v>-21</v>
+        <v>-1</v>
       </c>
       <c r="F190" t="n">
-        <v>74.11599616998329</v>
+        <v>73.28479281902671</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>-7.518125734016565e-07</v>
+        <v>-0.1662391355983818</v>
       </c>
     </row>
     <row r="191">
@@ -6287,16 +6313,16 @@
         <v>114.98</v>
       </c>
       <c r="E191" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F191" t="n">
-        <v>113.6659931945498</v>
+        <v>112.8361167221989</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="192">
@@ -6315,16 +6341,16 @@
         <v>111.81</v>
       </c>
       <c r="E192" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F192" t="n">
-        <v>110.5309930419627</v>
+        <v>109.7011106062684</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="193">
@@ -6343,16 +6369,16 @@
         <v>115.74</v>
       </c>
       <c r="E193" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F193" t="n">
-        <v>114.4714949035352</v>
+        <v>113.6416091536398</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="194">
@@ -6371,16 +6397,16 @@
         <v>120.12</v>
       </c>
       <c r="E194" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F194" t="n">
-        <v>118.8074961852725</v>
+        <v>117.9776121550266</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="195">
@@ -6399,16 +6425,16 @@
         <v>111.33</v>
       </c>
       <c r="E195" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F195" t="n">
-        <v>110.0429936217965</v>
+        <v>109.2131184341664</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="196">
@@ -6427,16 +6453,16 @@
         <v>120.4</v>
       </c>
       <c r="E196" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F196" t="n">
-        <v>119.0884956359561</v>
+        <v>118.2585849504958</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="197">
@@ -6455,16 +6481,16 @@
         <v>116.34</v>
       </c>
       <c r="E197" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F197" t="n">
-        <v>115.0389974975286</v>
+        <v>114.2091140143105</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="198">
@@ -6483,16 +6509,16 @@
         <v>110.15</v>
       </c>
       <c r="E198" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F198" t="n">
-        <v>108.791002654998</v>
+        <v>107.9611125958414</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="199">
@@ -6511,16 +6537,16 @@
         <v>115.21</v>
       </c>
       <c r="E199" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F199" t="n">
-        <v>113.9105004882513</v>
+        <v>113.0806094471382</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="200">
@@ -6539,16 +6565,16 @@
         <v>110.18</v>
       </c>
       <c r="E200" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F200" t="n">
-        <v>108.8550011443786</v>
+        <v>108.0250993533008</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="201">
@@ -6567,16 +6593,16 @@
         <v>110.17</v>
       </c>
       <c r="E201" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F201" t="n">
-        <v>108.9374961089804</v>
+        <v>108.1076063496217</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="202">
@@ -6595,16 +6621,16 @@
         <v>113.71</v>
       </c>
       <c r="E202" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F202" t="n">
-        <v>112.4539994811722</v>
+        <v>111.6241143248362</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="203">
@@ -6623,16 +6649,16 @@
         <v>102.93</v>
       </c>
       <c r="E203" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F203" t="n">
-        <v>101.7205025481899</v>
+        <v>100.8906100681896</v>
       </c>
       <c r="G203" t="n">
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="204">
@@ -6651,16 +6677,16 @@
         <v>103.88</v>
       </c>
       <c r="E204" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F204" t="n">
-        <v>102.601994399995</v>
+        <v>101.772098659392</v>
       </c>
       <c r="G204" t="n">
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="205">
@@ -6679,16 +6705,16 @@
         <v>72.19</v>
       </c>
       <c r="E205" t="n">
-        <v>-22.87</v>
+        <v>-12.87</v>
       </c>
       <c r="F205" t="n">
-        <v>70.69703620907202</v>
+        <v>69.86334969179464</v>
       </c>
       <c r="G205" t="n">
-        <v>0.3747771701855042</v>
+        <v>0.4291242172543775</v>
       </c>
       <c r="H205" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="206">
@@ -6707,16 +6733,16 @@
         <v>69.94</v>
       </c>
       <c r="E206" t="n">
-        <v>-8.530000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="F206" t="n">
-        <v>68.54949707028044</v>
+        <v>67.71957499432681</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="207">
@@ -6735,16 +6761,16 @@
         <v>76.56999999999999</v>
       </c>
       <c r="E207" t="n">
-        <v>-15.56</v>
+        <v>4.44</v>
       </c>
       <c r="F207" t="n">
-        <v>75.14050132748169</v>
+        <v>74.31058311685763</v>
       </c>
       <c r="G207" t="n">
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="208">
@@ -6763,16 +6789,16 @@
         <v>70.45999999999999</v>
       </c>
       <c r="E208" t="n">
-        <v>-29.63000000000001</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="F208" t="n">
-        <v>69.00899787899486</v>
+        <v>68.17909008877196</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="209">
@@ -6791,16 +6817,16 @@
         <v>67.94</v>
       </c>
       <c r="E209" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F209" t="n">
-        <v>66.51950210568015</v>
+        <v>65.68958623140141</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="210">
@@ -6819,16 +6845,16 @@
         <v>73.87</v>
       </c>
       <c r="E210" t="n">
-        <v>-8.879999999999995</v>
+        <v>11.12</v>
       </c>
       <c r="F210" t="n">
-        <v>72.41999923702713</v>
+        <v>71.59008195772748</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="211">
@@ -6847,16 +6873,16 @@
         <v>67.88</v>
       </c>
       <c r="E211" t="n">
-        <v>-31.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F211" t="n">
-        <v>66.26999557491405</v>
+        <v>65.44007068035339</v>
       </c>
       <c r="G211" t="n">
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="212">
@@ -6875,16 +6901,16 @@
         <v>72.28</v>
       </c>
       <c r="E212" t="n">
-        <v>-35.29</v>
+        <v>-15.29</v>
       </c>
       <c r="F212" t="n">
-        <v>70.90300109860107</v>
+        <v>70.07307585144493</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="213">
@@ -6903,16 +6929,16 @@
         <v>75.55</v>
       </c>
       <c r="E213" t="n">
-        <v>-21</v>
+        <v>-1</v>
       </c>
       <c r="F213" t="n">
-        <v>74.11599617001089</v>
+        <v>73.28608155958577</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>-4.758996904956468e-07</v>
+        <v>-0.16598058376636</v>
       </c>
     </row>
     <row r="214">
@@ -6931,16 +6957,16 @@
         <v>114.98</v>
       </c>
       <c r="E214" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F214" t="n">
-        <v>113.6659931945081</v>
+        <v>112.8370313434457</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="215">
@@ -6959,16 +6985,16 @@
         <v>111.81</v>
       </c>
       <c r="E215" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F215" t="n">
-        <v>110.5309930419221</v>
+        <v>109.7020251383314</v>
       </c>
       <c r="G215" t="n">
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="216">
@@ -6987,16 +7013,16 @@
         <v>115.74</v>
       </c>
       <c r="E216" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F216" t="n">
-        <v>114.4714949034949</v>
+        <v>113.6425274746827</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="217">
@@ -7015,16 +7041,16 @@
         <v>120.12</v>
       </c>
       <c r="E217" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F217" t="n">
-        <v>118.8074942778822</v>
+        <v>117.9785305882173</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="218">
@@ -7043,16 +7069,16 @@
         <v>111.33</v>
       </c>
       <c r="E218" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F218" t="n">
-        <v>110.0429936217556</v>
+        <v>109.2140406181847</v>
       </c>
       <c r="G218" t="n">
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="219">
@@ -7071,16 +7097,16 @@
         <v>120.4</v>
       </c>
       <c r="E219" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F219" t="n">
-        <v>119.0884956359145</v>
+        <v>118.2595415281075</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="220">
@@ -7099,16 +7125,16 @@
         <v>116.34</v>
       </c>
       <c r="E220" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F220" t="n">
-        <v>115.0389974974873</v>
+        <v>114.2100324182188</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="221">
@@ -7127,16 +7153,16 @@
         <v>110.15</v>
       </c>
       <c r="E221" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F221" t="n">
-        <v>108.7910007476062</v>
+        <v>107.9620349633302</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="222">
@@ -7155,16 +7181,16 @@
         <v>115.21</v>
       </c>
       <c r="E222" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F222" t="n">
-        <v>113.9104985808614</v>
+        <v>113.0815240314477</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="223">
@@ -7183,16 +7209,16 @@
         <v>110.18</v>
       </c>
       <c r="E223" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F223" t="n">
-        <v>108.8549992369879</v>
+        <v>108.0260178183257</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="224">
@@ -7211,16 +7237,16 @@
         <v>110.17</v>
       </c>
       <c r="E224" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F224" t="n">
-        <v>108.9374961089412</v>
+        <v>108.1085283947613</v>
       </c>
       <c r="G224" t="n">
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="225">
@@ -7239,16 +7265,16 @@
         <v>113.71</v>
       </c>
       <c r="E225" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F225" t="n">
-        <v>112.4539994811323</v>
+        <v>111.625036429877</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="226">
@@ -7267,16 +7293,16 @@
         <v>102.93</v>
       </c>
       <c r="E226" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F226" t="n">
-        <v>101.7204930114083</v>
+        <v>100.8915320547641</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="227">
@@ -7295,16 +7321,16 @@
         <v>103.88</v>
       </c>
       <c r="E227" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F227" t="n">
-        <v>102.6019943999544</v>
+        <v>101.773039893993</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="228">
@@ -7323,16 +7349,16 @@
         <v>69.94</v>
       </c>
       <c r="E228" t="n">
-        <v>-8.530000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="F228" t="n">
-        <v>68.54949516288767</v>
+        <v>67.72055466252776</v>
       </c>
       <c r="G228" t="n">
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="229">
@@ -7351,16 +7377,16 @@
         <v>76.56999999999999</v>
       </c>
       <c r="E229" t="n">
-        <v>-15.56</v>
+        <v>4.44</v>
       </c>
       <c r="F229" t="n">
-        <v>75.14049179069313</v>
+        <v>74.31152473747598</v>
       </c>
       <c r="G229" t="n">
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="230">
@@ -7379,16 +7405,16 @@
         <v>70.45999999999999</v>
       </c>
       <c r="E230" t="n">
-        <v>-29.63000000000001</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="F230" t="n">
-        <v>69.00899597160016</v>
+        <v>68.18001269070206</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="231">
@@ -7407,16 +7433,16 @@
         <v>67.94</v>
       </c>
       <c r="E231" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F231" t="n">
-        <v>66.51950019828641</v>
+        <v>65.69052782905564</v>
       </c>
       <c r="G231" t="n">
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="232">
@@ -7435,16 +7461,16 @@
         <v>73.87</v>
       </c>
       <c r="E232" t="n">
-        <v>-8.879999999999995</v>
+        <v>11.12</v>
       </c>
       <c r="F232" t="n">
-        <v>72.41999732963245</v>
+        <v>71.59102363059226</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="233">
@@ -7463,16 +7489,16 @@
         <v>67.88</v>
       </c>
       <c r="E233" t="n">
-        <v>-31.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F233" t="n">
-        <v>66.27000034323451</v>
+        <v>65.44102801857836</v>
       </c>
       <c r="G233" t="n">
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="234">
@@ -7491,16 +7517,16 @@
         <v>72.28</v>
       </c>
       <c r="E234" t="n">
-        <v>-35.29</v>
+        <v>-15.29</v>
       </c>
       <c r="F234" t="n">
-        <v>70.88517406455979</v>
+        <v>70.05350478510348</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2576589755997714</v>
+        <v>0.2965752745014587</v>
       </c>
       <c r="H234" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="235">
@@ -7519,16 +7545,16 @@
         <v>75.55</v>
       </c>
       <c r="E235" t="n">
-        <v>-21</v>
+        <v>-1</v>
       </c>
       <c r="F235" t="n">
-        <v>74.11599616996536</v>
+        <v>73.28704226517249</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>-7.414467285902065e-07</v>
+        <v>-0.1657938451208516</v>
       </c>
     </row>
     <row r="236">
@@ -7547,16 +7573,16 @@
         <v>114.98</v>
       </c>
       <c r="E236" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F236" t="n">
-        <v>113.6660027312612</v>
+        <v>112.8376817547542</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="237">
@@ -7575,16 +7601,16 @@
         <v>111.81</v>
       </c>
       <c r="E237" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F237" t="n">
-        <v>110.531002578675</v>
+        <v>109.7026756252624</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
       </c>
       <c r="H237" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="238">
@@ -7603,16 +7629,16 @@
         <v>115.74</v>
       </c>
       <c r="E238" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F238" t="n">
-        <v>114.4714949035046</v>
+        <v>113.6431894262237</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="239">
@@ -7631,16 +7657,16 @@
         <v>120.12</v>
       </c>
       <c r="E239" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F239" t="n">
-        <v>118.8074961852408</v>
+        <v>117.9791771869999</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="240">
@@ -7659,16 +7685,16 @@
         <v>111.33</v>
       </c>
       <c r="E240" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F240" t="n">
-        <v>110.0429955291141</v>
+        <v>109.2146834562645</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="241">
@@ -7687,16 +7713,16 @@
         <v>120.4</v>
       </c>
       <c r="E241" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F241" t="n">
-        <v>119.0884975432731</v>
+        <v>118.2601881290538</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="242">
@@ -7715,16 +7741,16 @@
         <v>116.34</v>
       </c>
       <c r="E242" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F242" t="n">
-        <v>115.0389994048458</v>
+        <v>114.2106790418312</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="243">
@@ -7743,16 +7769,16 @@
         <v>110.15</v>
       </c>
       <c r="E243" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F243" t="n">
-        <v>108.7910026549652</v>
+        <v>107.9626776458378</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="244">
@@ -7771,16 +7797,16 @@
         <v>115.21</v>
       </c>
       <c r="E244" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F244" t="n">
-        <v>113.9105004882199</v>
+        <v>113.0821744740769</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="245">
@@ -7799,16 +7825,16 @@
         <v>110.18</v>
       </c>
       <c r="E245" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F245" t="n">
-        <v>108.8550011443466</v>
+        <v>108.0266605742922</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="246">
@@ -7827,16 +7853,16 @@
         <v>110.17</v>
       </c>
       <c r="E246" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F246" t="n">
-        <v>108.9374961089506</v>
+        <v>108.1091713506019</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="247">
@@ -7855,16 +7881,16 @@
         <v>113.71</v>
       </c>
       <c r="E247" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F247" t="n">
-        <v>112.4539994811419</v>
+        <v>111.625679334925</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="248">
@@ -7883,16 +7909,16 @@
         <v>102.93</v>
       </c>
       <c r="E248" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F248" t="n">
-        <v>101.7205025481607</v>
+        <v>100.8921788760871</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="249">
@@ -7911,16 +7937,16 @@
         <v>103.88</v>
       </c>
       <c r="E249" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F249" t="n">
-        <v>102.6019943999641</v>
+        <v>101.7736636780074</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="250">
@@ -7939,16 +7965,16 @@
         <v>69.94</v>
       </c>
       <c r="E250" t="n">
-        <v>-8.530000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="F250" t="n">
-        <v>68.54949707024687</v>
+        <v>67.72117820349916</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="251">
@@ -7967,16 +7993,16 @@
         <v>76.56999999999999</v>
       </c>
       <c r="E251" t="n">
-        <v>-15.56</v>
+        <v>4.44</v>
       </c>
       <c r="F251" t="n">
-        <v>75.14050132744717</v>
+        <v>74.31216726765686</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="252">
@@ -7995,16 +8021,16 @@
         <v>70.45999999999999</v>
       </c>
       <c r="E252" t="n">
-        <v>-29.63000000000001</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="F252" t="n">
-        <v>69.00899787895983</v>
+        <v>68.18067424790378</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="253">
@@ -8023,16 +8049,16 @@
         <v>67.94</v>
       </c>
       <c r="E253" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F253" t="n">
-        <v>66.51950210564584</v>
+        <v>65.69117037870868</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="254">
@@ -8051,16 +8077,16 @@
         <v>73.87</v>
       </c>
       <c r="E254" t="n">
-        <v>-8.879999999999995</v>
+        <v>11.12</v>
       </c>
       <c r="F254" t="n">
-        <v>72.41999923699211</v>
+        <v>71.59166611647136</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="255">
@@ -8079,16 +8105,16 @@
         <v>67.88</v>
       </c>
       <c r="E255" t="n">
-        <v>-31.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F255" t="n">
-        <v>66.26999557487518</v>
+        <v>65.44165490108337</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="256">
@@ -8107,16 +8133,16 @@
         <v>75.55</v>
       </c>
       <c r="E256" t="n">
-        <v>-21</v>
+        <v>-1</v>
       </c>
       <c r="F256" t="n">
-        <v>74.10427265160412</v>
+        <v>73.27416486025081</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1771661070166191</v>
+        <v>0.2039768548917278</v>
       </c>
       <c r="H256" t="n">
-        <v>-2.225024395000325e-07</v>
+        <v>-0.1656651810405926</v>
       </c>
     </row>
     <row r="257">
@@ -8135,16 +8161,16 @@
         <v>114.98</v>
       </c>
       <c r="E257" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F257" t="n">
-        <v>113.6659979629266</v>
+        <v>112.8381265647324</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="258">
@@ -8163,16 +8189,16 @@
         <v>111.81</v>
       </c>
       <c r="E258" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F258" t="n">
-        <v>110.5309978103394</v>
+        <v>109.7031395024503</v>
       </c>
       <c r="G258" t="n">
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="259">
@@ -8191,16 +8217,16 @@
         <v>115.74</v>
       </c>
       <c r="E259" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F259" t="n">
-        <v>114.4714996719119</v>
+        <v>113.6436342280439</v>
       </c>
       <c r="G259" t="n">
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="260">
@@ -8219,16 +8245,16 @@
         <v>120.12</v>
       </c>
       <c r="E260" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F260" t="n">
-        <v>118.807499999975</v>
+        <v>117.9796410701951</v>
       </c>
       <c r="G260" t="n">
         <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="261">
@@ -8247,16 +8273,16 @@
         <v>111.33</v>
       </c>
       <c r="E261" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F261" t="n">
-        <v>110.0429993438475</v>
+        <v>109.215132077221</v>
       </c>
       <c r="G261" t="n">
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="262">
@@ -8275,16 +8301,16 @@
         <v>120.4</v>
       </c>
       <c r="E262" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F262" t="n">
-        <v>119.0884965896357</v>
+        <v>118.260632938583</v>
       </c>
       <c r="G262" t="n">
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="263">
@@ -8303,16 +8329,16 @@
         <v>116.34</v>
       </c>
       <c r="E263" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F263" t="n">
-        <v>115.0389984512081</v>
+        <v>114.2111238494791</v>
       </c>
       <c r="G263" t="n">
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="264">
@@ -8331,16 +8357,16 @@
         <v>110.15</v>
       </c>
       <c r="E264" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F264" t="n">
-        <v>108.7909969329575</v>
+        <v>107.9631262797068</v>
       </c>
       <c r="G264" t="n">
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="265">
@@ -8359,16 +8385,16 @@
         <v>115.21</v>
       </c>
       <c r="E265" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F265" t="n">
-        <v>113.9104995345822</v>
+        <v>113.0826383549417</v>
       </c>
       <c r="G265" t="n">
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="266">
@@ -8387,16 +8413,16 @@
         <v>110.18</v>
       </c>
       <c r="E266" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F266" t="n">
-        <v>108.8550001907096</v>
+        <v>108.0271282755505</v>
       </c>
       <c r="G266" t="n">
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="267">
@@ -8415,16 +8441,16 @@
         <v>110.17</v>
       </c>
       <c r="E267" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F267" t="n">
-        <v>108.9374961089853</v>
+        <v>108.1096390352707</v>
       </c>
       <c r="G267" t="n">
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="268">
@@ -8443,16 +8469,16 @@
         <v>113.71</v>
       </c>
       <c r="E268" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F268" t="n">
-        <v>112.4539994811772</v>
+        <v>111.6261279503231</v>
       </c>
       <c r="G268" t="n">
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="269">
@@ -8471,16 +8497,16 @@
         <v>102.93</v>
       </c>
       <c r="E269" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F269" t="n">
-        <v>101.7204977798231</v>
+        <v>100.8926236673251</v>
       </c>
       <c r="G269" t="n">
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="270">
@@ -8499,16 +8525,16 @@
         <v>103.88</v>
       </c>
       <c r="E270" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F270" t="n">
-        <v>102.6019991683716</v>
+        <v>101.7741313708382</v>
       </c>
       <c r="G270" t="n">
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="271">
@@ -8527,16 +8553,16 @@
         <v>69.94</v>
       </c>
       <c r="E271" t="n">
-        <v>-8.530000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="F271" t="n">
-        <v>68.54161018368917</v>
+        <v>67.71253980687649</v>
       </c>
       <c r="G271" t="n">
-        <v>0.110321161924197</v>
+        <v>0.1269190269187663</v>
       </c>
       <c r="H271" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="272">
@@ -8555,16 +8581,16 @@
         <v>76.56999999999999</v>
       </c>
       <c r="E272" t="n">
-        <v>-15.56</v>
+        <v>4.44</v>
       </c>
       <c r="F272" t="n">
-        <v>75.14049655911582</v>
+        <v>74.31261591416893</v>
       </c>
       <c r="G272" t="n">
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="273">
@@ -8583,16 +8609,16 @@
         <v>70.45999999999999</v>
       </c>
       <c r="E273" t="n">
-        <v>-29.63000000000001</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="F273" t="n">
-        <v>69.00900169369794</v>
+        <v>68.18112289827241</v>
       </c>
       <c r="G273" t="n">
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="274">
@@ -8611,16 +8637,16 @@
         <v>67.94</v>
       </c>
       <c r="E274" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F274" t="n">
-        <v>66.51950115201151</v>
+        <v>65.69161520778616</v>
       </c>
       <c r="G274" t="n">
         <v>0</v>
       </c>
       <c r="H274" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="275">
@@ -8639,16 +8665,16 @@
         <v>73.87</v>
       </c>
       <c r="E275" t="n">
-        <v>-8.879999999999995</v>
+        <v>11.12</v>
       </c>
       <c r="F275" t="n">
-        <v>72.41999828335861</v>
+        <v>71.59213384014666</v>
       </c>
       <c r="G275" t="n">
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="276">
@@ -8667,16 +8693,16 @@
         <v>67.88</v>
       </c>
       <c r="E276" t="n">
-        <v>-31.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F276" t="n">
-        <v>66.27000034329207</v>
+        <v>65.44211883763006</v>
       </c>
       <c r="G276" t="n">
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>-2.591523815200338e-07</v>
+        <v>-0.1655743490845955</v>
       </c>
     </row>
     <row r="277">
@@ -8695,16 +8721,16 @@
         <v>114.98</v>
       </c>
       <c r="E277" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F277" t="n">
-        <v>113.6659979629255</v>
+        <v>112.8384471625512</v>
       </c>
       <c r="G277" t="n">
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="278">
@@ -8723,16 +8749,16 @@
         <v>111.81</v>
       </c>
       <c r="E278" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F278" t="n">
-        <v>110.5309978103383</v>
+        <v>109.7034360265499</v>
       </c>
       <c r="G278" t="n">
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="279">
@@ -8751,16 +8777,16 @@
         <v>115.74</v>
       </c>
       <c r="E279" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F279" t="n">
-        <v>114.4714996719108</v>
+        <v>113.6439292529186</v>
       </c>
       <c r="G279" t="n">
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="280">
@@ -8779,16 +8805,16 @@
         <v>120.12</v>
       </c>
       <c r="E280" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F280" t="n">
-        <v>118.8074999999739</v>
+        <v>117.9799423815922</v>
       </c>
       <c r="G280" t="n">
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="281">
@@ -8807,16 +8833,16 @@
         <v>111.33</v>
       </c>
       <c r="E281" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F281" t="n">
-        <v>110.0429993438465</v>
+        <v>109.2154450003982</v>
       </c>
       <c r="G281" t="n">
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="282">
@@ -8835,16 +8861,16 @@
         <v>120.4</v>
       </c>
       <c r="E282" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F282" t="n">
-        <v>119.0884965896346</v>
+        <v>118.2609493627683</v>
       </c>
       <c r="G282" t="n">
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="283">
@@ -8863,16 +8889,16 @@
         <v>116.34</v>
       </c>
       <c r="E283" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F283" t="n">
-        <v>115.038998451207</v>
+        <v>114.2114425903034</v>
       </c>
       <c r="G283" t="n">
         <v>0</v>
       </c>
       <c r="H283" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="284">
@@ -8891,16 +8917,16 @@
         <v>110.15</v>
       </c>
       <c r="E284" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F284" t="n">
-        <v>108.7909969329564</v>
+        <v>107.9634494930183</v>
       </c>
       <c r="G284" t="n">
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="285">
@@ -8919,16 +8945,16 @@
         <v>115.21</v>
       </c>
       <c r="E285" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F285" t="n">
-        <v>113.9104995345811</v>
+        <v>113.0829378093444</v>
       </c>
       <c r="G285" t="n">
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="286">
@@ -8947,16 +8973,16 @@
         <v>110.18</v>
       </c>
       <c r="E286" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F286" t="n">
-        <v>108.8550001907085</v>
+        <v>108.027427559977</v>
       </c>
       <c r="G286" t="n">
         <v>0</v>
       </c>
       <c r="H286" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="287">
@@ -8975,16 +9001,16 @@
         <v>110.17</v>
       </c>
       <c r="E287" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F287" t="n">
-        <v>108.9374961089843</v>
+        <v>108.1099250992598</v>
       </c>
       <c r="G287" t="n">
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="288">
@@ -9003,16 +9029,16 @@
         <v>113.71</v>
       </c>
       <c r="E288" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F288" t="n">
-        <v>112.4539994811762</v>
+        <v>111.6264364439724</v>
       </c>
       <c r="G288" t="n">
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="289">
@@ -9031,16 +9057,16 @@
         <v>102.93</v>
       </c>
       <c r="E289" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F289" t="n">
-        <v>101.7204977798221</v>
+        <v>100.8929255166824</v>
       </c>
       <c r="G289" t="n">
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="290">
@@ -9059,16 +9085,16 @@
         <v>103.88</v>
       </c>
       <c r="E290" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F290" t="n">
-        <v>102.6019991683706</v>
+        <v>101.7744430077259</v>
       </c>
       <c r="G290" t="n">
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="291">
@@ -9087,16 +9113,16 @@
         <v>76.56999999999999</v>
       </c>
       <c r="E291" t="n">
-        <v>-15.56</v>
+        <v>4.44</v>
       </c>
       <c r="F291" t="n">
-        <v>75.13529998776443</v>
+        <v>74.30693782073615</v>
       </c>
       <c r="G291" t="n">
-        <v>0.07957741393236124</v>
+        <v>0.0918678198868759</v>
       </c>
       <c r="H291" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="292">
@@ -9115,16 +9141,16 @@
         <v>70.45999999999999</v>
       </c>
       <c r="E292" t="n">
-        <v>-29.63000000000001</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="F292" t="n">
-        <v>69.00900169369672</v>
+        <v>68.18147832877443</v>
       </c>
       <c r="G292" t="n">
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="293">
@@ -9143,16 +9169,16 @@
         <v>67.94</v>
       </c>
       <c r="E293" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F293" t="n">
-        <v>66.51950210568464</v>
+        <v>65.69195102787097</v>
       </c>
       <c r="G293" t="n">
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="294">
@@ -9171,16 +9197,16 @@
         <v>73.87</v>
       </c>
       <c r="E294" t="n">
-        <v>-8.879999999999995</v>
+        <v>11.12</v>
       </c>
       <c r="F294" t="n">
-        <v>72.4199982833574</v>
+        <v>71.59247005664419</v>
       </c>
       <c r="G294" t="n">
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="295">
@@ -9199,16 +9225,16 @@
         <v>67.88</v>
       </c>
       <c r="E295" t="n">
-        <v>-31.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F295" t="n">
-        <v>66.27000034329073</v>
+        <v>65.44247792157718</v>
       </c>
       <c r="G295" t="n">
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>-2.334364768820493e-07</v>
+        <v>-0.1655110441462332</v>
       </c>
     </row>
     <row r="296">
@@ -9227,16 +9253,16 @@
         <v>114.98</v>
       </c>
       <c r="E296" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F296" t="n">
-        <v>113.6659979629344</v>
+        <v>112.8387133322576</v>
       </c>
       <c r="G296" t="n">
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="297">
@@ -9255,16 +9281,16 @@
         <v>111.81</v>
       </c>
       <c r="E297" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F297" t="n">
-        <v>110.530997810347</v>
+        <v>109.7037072735194</v>
       </c>
       <c r="G297" t="n">
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="298">
@@ -9283,16 +9309,16 @@
         <v>115.74</v>
       </c>
       <c r="E298" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F298" t="n">
-        <v>114.4714996719194</v>
+        <v>113.644202022201</v>
       </c>
       <c r="G298" t="n">
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="299">
@@ -9311,16 +9337,16 @@
         <v>120.12</v>
       </c>
       <c r="E299" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F299" t="n">
-        <v>118.8074999999828</v>
+        <v>117.9802125834107</v>
       </c>
       <c r="G299" t="n">
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="300">
@@ -9339,16 +9365,16 @@
         <v>111.33</v>
       </c>
       <c r="E300" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F300" t="n">
-        <v>110.0429993438552</v>
+        <v>109.2157036465826</v>
       </c>
       <c r="G300" t="n">
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="301">
@@ -9367,16 +9393,16 @@
         <v>120.4</v>
       </c>
       <c r="E301" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F301" t="n">
-        <v>119.088501358015</v>
+        <v>118.2612044540024</v>
       </c>
       <c r="G301" t="n">
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="302">
@@ -9395,16 +9421,16 @@
         <v>116.34</v>
       </c>
       <c r="E302" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F302" t="n">
-        <v>115.0389984512158</v>
+        <v>114.211714461473</v>
       </c>
       <c r="G302" t="n">
         <v>0</v>
       </c>
       <c r="H302" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="303">
@@ -9423,16 +9449,16 @@
         <v>110.15</v>
       </c>
       <c r="E303" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F303" t="n">
-        <v>108.7910017013372</v>
+        <v>107.9636976906002</v>
       </c>
       <c r="G303" t="n">
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="304">
@@ -9451,16 +9477,16 @@
         <v>115.21</v>
       </c>
       <c r="E304" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F304" t="n">
-        <v>113.9104995345899</v>
+        <v>113.0832060808841</v>
       </c>
       <c r="G304" t="n">
         <v>0</v>
       </c>
       <c r="H304" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="305">
@@ -9479,16 +9505,16 @@
         <v>110.18</v>
       </c>
       <c r="E305" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F305" t="n">
-        <v>108.8550001907175</v>
+        <v>108.0277188347566</v>
       </c>
       <c r="G305" t="n">
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="306">
@@ -9507,16 +9533,16 @@
         <v>110.17</v>
       </c>
       <c r="E306" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F306" t="n">
-        <v>108.9375008773642</v>
+        <v>108.1102221663298</v>
       </c>
       <c r="G306" t="n">
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="307">
@@ -9535,16 +9561,16 @@
         <v>113.71</v>
       </c>
       <c r="E307" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F307" t="n">
-        <v>112.4539994811847</v>
+        <v>111.6266995878995</v>
       </c>
       <c r="G307" t="n">
         <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="308">
@@ -9563,16 +9589,16 @@
         <v>102.93</v>
       </c>
       <c r="E308" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F308" t="n">
-        <v>101.7204977798303</v>
+        <v>100.8932144807099</v>
       </c>
       <c r="G308" t="n">
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="309">
@@ -9591,16 +9617,16 @@
         <v>103.88</v>
       </c>
       <c r="E309" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F309" t="n">
-        <v>102.6019991683792</v>
+        <v>101.7747182175975</v>
       </c>
       <c r="G309" t="n">
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="310">
@@ -9619,16 +9645,16 @@
         <v>70.45999999999999</v>
       </c>
       <c r="E310" t="n">
-        <v>-29.63000000000001</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="F310" t="n">
-        <v>69.00491996763228</v>
+        <v>68.17700179543615</v>
       </c>
       <c r="G310" t="n">
-        <v>0.05747192455307265</v>
+        <v>0.06626572055873108</v>
       </c>
       <c r="H310" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="311">
@@ -9647,16 +9673,16 @@
         <v>67.94</v>
       </c>
       <c r="E311" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F311" t="n">
-        <v>66.51949733732268</v>
+        <v>65.69218648329951</v>
       </c>
       <c r="G311" t="n">
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="312">
@@ -9675,16 +9701,16 @@
         <v>73.87</v>
       </c>
       <c r="E312" t="n">
-        <v>-8.879999999999995</v>
+        <v>11.12</v>
       </c>
       <c r="F312" t="n">
-        <v>72.41999828336721</v>
+        <v>71.59270123488014</v>
       </c>
       <c r="G312" t="n">
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="313">
@@ -9703,16 +9729,16 @@
         <v>67.88</v>
       </c>
       <c r="E313" t="n">
-        <v>-31.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F313" t="n">
-        <v>66.27000034330163</v>
+        <v>65.44268969608881</v>
       </c>
       <c r="G313" t="n">
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>-1.377748403553501e-07</v>
+        <v>-0.1654587065952123</v>
       </c>
     </row>
     <row r="314">
@@ -9731,16 +9757,16 @@
         <v>114.98</v>
       </c>
       <c r="E314" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F314" t="n">
-        <v>113.6660000367002</v>
+        <v>112.8388991858838</v>
       </c>
       <c r="G314" t="n">
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="315">
@@ -9759,16 +9785,16 @@
         <v>111.81</v>
       </c>
       <c r="E315" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F315" t="n">
-        <v>110.5309998288758</v>
+        <v>109.7038917842306</v>
       </c>
       <c r="G315" t="n">
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="316">
@@ -9787,16 +9813,16 @@
         <v>115.74</v>
       </c>
       <c r="E316" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F316" t="n">
-        <v>114.4715016738733</v>
+        <v>113.644405202673</v>
       </c>
       <c r="G316" t="n">
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="317">
@@ -9815,16 +9841,16 @@
         <v>120.12</v>
       </c>
       <c r="E317" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F317" t="n">
-        <v>118.807502071378</v>
+        <v>117.9803945639501</v>
       </c>
       <c r="G317" t="n">
         <v>0</v>
       </c>
       <c r="H317" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="318">
@@ -9843,16 +9869,16 @@
         <v>111.33</v>
       </c>
       <c r="E318" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F318" t="n">
-        <v>110.0430004213336</v>
+        <v>109.2158999056386</v>
       </c>
       <c r="G318" t="n">
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="319">
@@ -9871,16 +9897,16 @@
         <v>120.4</v>
       </c>
       <c r="E319" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F319" t="n">
-        <v>119.0885024741556</v>
+        <v>118.2614016533346</v>
       </c>
       <c r="G319" t="n">
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="320">
@@ -9899,16 +9925,16 @@
         <v>116.34</v>
       </c>
       <c r="E320" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F320" t="n">
-        <v>115.039001934972</v>
+        <v>114.2118960005051</v>
       </c>
       <c r="G320" t="n">
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="321">
@@ -9927,16 +9953,16 @@
         <v>110.15</v>
       </c>
       <c r="E321" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F321" t="n">
-        <v>108.791001461934</v>
+        <v>107.9639005290481</v>
       </c>
       <c r="G321" t="n">
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="322">
@@ -9955,16 +9981,16 @@
         <v>115.21</v>
       </c>
       <c r="E322" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F322" t="n">
-        <v>113.9105015854688</v>
+        <v>113.0834104509709</v>
       </c>
       <c r="G322" t="n">
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="323">
@@ -9983,16 +10009,16 @@
         <v>110.18</v>
       </c>
       <c r="E323" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F323" t="n">
-        <v>108.8550022818388</v>
+        <v>108.0279012945848</v>
       </c>
       <c r="G323" t="n">
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="324">
@@ -10011,16 +10037,16 @@
         <v>110.17</v>
       </c>
       <c r="E324" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F324" t="n">
-        <v>108.9375004383197</v>
+        <v>108.1103858191325</v>
       </c>
       <c r="G324" t="n">
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="325">
@@ -10039,16 +10065,16 @@
         <v>113.71</v>
       </c>
       <c r="E325" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F325" t="n">
-        <v>112.4540005097382</v>
+        <v>111.6268984731659</v>
       </c>
       <c r="G325" t="n">
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="326">
@@ -10067,16 +10093,16 @@
         <v>102.93</v>
       </c>
       <c r="E326" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F326" t="n">
-        <v>101.7205011191821</v>
+        <v>100.8933925080678</v>
       </c>
       <c r="G326" t="n">
         <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="327">
@@ -10095,16 +10121,16 @@
         <v>103.88</v>
       </c>
       <c r="E327" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F327" t="n">
-        <v>102.6020007084905</v>
+        <v>101.7748988736152</v>
       </c>
       <c r="G327" t="n">
         <v>0</v>
       </c>
       <c r="H327" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="328">
@@ -10123,16 +10149,16 @@
         <v>67.94</v>
       </c>
       <c r="E328" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F328" t="n">
-        <v>66.51950100967656</v>
+        <v>65.69239168267538</v>
       </c>
       <c r="G328" t="n">
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="329">
@@ -10151,16 +10177,16 @@
         <v>73.87</v>
       </c>
       <c r="E329" t="n">
-        <v>-8.879999999999995</v>
+        <v>11.12</v>
       </c>
       <c r="F329" t="n">
-        <v>72.41718723697537</v>
+        <v>71.58964596668932</v>
       </c>
       <c r="G329" t="n">
-        <v>0.04153831613242878</v>
+        <v>0.0478099791615901</v>
       </c>
       <c r="H329" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="330">
@@ -10179,16 +10205,16 @@
         <v>67.88</v>
       </c>
       <c r="E330" t="n">
-        <v>-31.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F330" t="n">
-        <v>66.27000336104811</v>
+        <v>65.44289835232678</v>
       </c>
       <c r="G330" t="n">
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>2.321906898489179e-07</v>
+        <v>-0.1654206078175177</v>
       </c>
     </row>
     <row r="331">
@@ -10207,16 +10233,16 @@
         <v>114.98</v>
       </c>
       <c r="E331" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F331" t="n">
-        <v>113.6660005857603</v>
+        <v>112.8390532627357</v>
       </c>
       <c r="G331" t="n">
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="332">
@@ -10235,16 +10261,16 @@
         <v>111.81</v>
       </c>
       <c r="E332" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F332" t="n">
-        <v>110.5310004268164</v>
+        <v>109.7040656917913</v>
       </c>
       <c r="G332" t="n">
         <v>0</v>
       </c>
       <c r="H332" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="333">
@@ -10263,16 +10289,16 @@
         <v>115.74</v>
       </c>
       <c r="E333" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F333" t="n">
-        <v>114.4714999022962</v>
+        <v>113.644564080762</v>
       </c>
       <c r="G333" t="n">
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="334">
@@ -10291,16 +10317,16 @@
         <v>120.12</v>
       </c>
       <c r="E334" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F334" t="n">
-        <v>118.8075002383506</v>
+        <v>117.9805677461548</v>
       </c>
       <c r="G334" t="n">
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="335">
@@ -10319,16 +10345,16 @@
         <v>111.33</v>
       </c>
       <c r="E335" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F335" t="n">
-        <v>110.0429991007549</v>
+        <v>109.2160583829612</v>
       </c>
       <c r="G335" t="n">
         <v>0</v>
       </c>
       <c r="H335" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="336">
@@ -10347,16 +10373,16 @@
         <v>120.4</v>
       </c>
       <c r="E336" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F336" t="n">
-        <v>119.0884987351786</v>
+        <v>118.2615596002199</v>
       </c>
       <c r="G336" t="n">
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="337">
@@ -10375,16 +10401,16 @@
         <v>116.34</v>
       </c>
       <c r="E337" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F337" t="n">
-        <v>115.0390005948436</v>
+        <v>114.2120503587229</v>
       </c>
       <c r="G337" t="n">
         <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="338">
@@ -10403,16 +10429,16 @@
         <v>110.15</v>
       </c>
       <c r="E338" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F338" t="n">
-        <v>108.7909995639643</v>
+        <v>107.9640536314176</v>
       </c>
       <c r="G338" t="n">
         <v>0</v>
       </c>
       <c r="H338" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="339">
@@ -10431,16 +10457,16 @@
         <v>115.21</v>
       </c>
       <c r="E339" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F339" t="n">
-        <v>113.9104997705967</v>
+        <v>113.0835648421421</v>
       </c>
       <c r="G339" t="n">
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="340">
@@ -10459,16 +10485,16 @@
         <v>110.18</v>
       </c>
       <c r="E340" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F340" t="n">
-        <v>108.8550004313553</v>
+        <v>108.0280551332945</v>
       </c>
       <c r="G340" t="n">
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="341">
@@ -10487,16 +10513,16 @@
         <v>110.17</v>
       </c>
       <c r="E341" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F341" t="n">
-        <v>108.9374987170174</v>
+        <v>108.1105645491849</v>
       </c>
       <c r="G341" t="n">
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="342">
@@ -10515,16 +10541,16 @@
         <v>113.71</v>
       </c>
       <c r="E342" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F342" t="n">
-        <v>112.4539992324543</v>
+        <v>111.627053805811</v>
       </c>
       <c r="G342" t="n">
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="343">
@@ -10543,16 +10569,16 @@
         <v>102.93</v>
       </c>
       <c r="E343" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F343" t="n">
-        <v>101.7204999068406</v>
+        <v>100.8935679205483</v>
       </c>
       <c r="G343" t="n">
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="344">
@@ -10571,16 +10597,16 @@
         <v>103.88</v>
       </c>
       <c r="E344" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F344" t="n">
-        <v>102.6019989236444</v>
+        <v>101.7750575458563</v>
       </c>
       <c r="G344" t="n">
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="345">
@@ -10599,16 +10625,16 @@
         <v>67.94</v>
       </c>
       <c r="E345" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F345" t="n">
-        <v>66.51949950265349</v>
+        <v>65.69254345307476</v>
       </c>
       <c r="G345" t="n">
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="346">
@@ -10627,16 +10653,16 @@
         <v>67.88</v>
       </c>
       <c r="E346" t="n">
-        <v>-31.99</v>
+        <v>-11.99</v>
       </c>
       <c r="F346" t="n">
-        <v>66.26779001903537</v>
+        <v>65.44048627512589</v>
       </c>
       <c r="G346" t="n">
-        <v>0.02999332384827387</v>
+        <v>0.0345936635808285</v>
       </c>
       <c r="H346" t="n">
-        <v>-6.322788478851273e-08</v>
+        <v>-0.1653885696466292</v>
       </c>
     </row>
     <row r="347">
@@ -10655,16 +10681,16 @@
         <v>114.98</v>
       </c>
       <c r="E347" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F347" t="n">
-        <v>113.6660004176658</v>
+        <v>112.839136125521</v>
       </c>
       <c r="G347" t="n">
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="348">
@@ -10683,16 +10709,16 @@
         <v>111.81</v>
       </c>
       <c r="E348" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F348" t="n">
-        <v>110.5310002631993</v>
+        <v>109.7041185987117</v>
       </c>
       <c r="G348" t="n">
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="349">
@@ -10711,16 +10737,16 @@
         <v>115.74</v>
       </c>
       <c r="E349" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F349" t="n">
-        <v>114.4714997400222</v>
+        <v>113.644609909053</v>
       </c>
       <c r="G349" t="n">
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="350">
@@ -10739,16 +10765,16 @@
         <v>120.12</v>
       </c>
       <c r="E350" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F350" t="n">
-        <v>118.8075000704478</v>
+        <v>117.9806310719778</v>
       </c>
       <c r="G350" t="n">
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="351">
@@ -10767,16 +10793,16 @@
         <v>111.33</v>
       </c>
       <c r="E351" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F351" t="n">
-        <v>110.0429989361141</v>
+        <v>109.216129032196</v>
       </c>
       <c r="G351" t="n">
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="352">
@@ -10795,16 +10821,16 @@
         <v>120.4</v>
       </c>
       <c r="E352" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F352" t="n">
-        <v>119.0884985674035</v>
+        <v>118.2616226195881</v>
       </c>
       <c r="G352" t="n">
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="353">
@@ -10823,16 +10849,16 @@
         <v>116.34</v>
       </c>
       <c r="E353" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F353" t="n">
-        <v>115.0390004284121</v>
+        <v>114.212129180012</v>
       </c>
       <c r="G353" t="n">
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="354">
@@ -10851,16 +10877,16 @@
         <v>110.15</v>
       </c>
       <c r="E354" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F354" t="n">
-        <v>108.7909993901129</v>
+        <v>107.9641504907528</v>
       </c>
       <c r="G354" t="n">
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="355">
@@ -10879,16 +10905,16 @@
         <v>115.21</v>
       </c>
       <c r="E355" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F355" t="n">
-        <v>113.910499604357</v>
+        <v>113.0836241264688</v>
       </c>
       <c r="G355" t="n">
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="356">
@@ -10907,16 +10933,16 @@
         <v>110.18</v>
       </c>
       <c r="E356" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F356" t="n">
-        <v>108.8550002618536</v>
+        <v>108.0281376013116</v>
       </c>
       <c r="G356" t="n">
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="357">
@@ -10935,16 +10961,16 @@
         <v>110.17</v>
       </c>
       <c r="E357" t="n">
-        <v>-138.99</v>
+        <v>-55.697</v>
       </c>
       <c r="F357" t="n">
-        <v>108.9366238016288</v>
+        <v>108.1095885675463</v>
       </c>
       <c r="G357" t="n">
-        <v>0.01929022961520682</v>
+        <v>0.02223840140703118</v>
       </c>
       <c r="H357" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="358">
@@ -10963,16 +10989,16 @@
         <v>113.71</v>
       </c>
       <c r="E358" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F358" t="n">
-        <v>112.4539990717793</v>
+        <v>111.6271186298017</v>
       </c>
       <c r="G358" t="n">
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="359">
@@ -10991,16 +11017,16 @@
         <v>102.93</v>
       </c>
       <c r="E359" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F359" t="n">
-        <v>101.7204997521142</v>
+        <v>100.8935992110267</v>
       </c>
       <c r="G359" t="n">
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="360">
@@ -11019,16 +11045,16 @@
         <v>103.88</v>
       </c>
       <c r="E360" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F360" t="n">
-        <v>102.6019989985735</v>
+        <v>101.775129211102</v>
       </c>
       <c r="G360" t="n">
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="361">
@@ -11047,16 +11073,16 @@
         <v>67.94</v>
       </c>
       <c r="E361" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F361" t="n">
-        <v>66.51949932093466</v>
+        <v>65.69265562960771</v>
       </c>
       <c r="G361" t="n">
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>-7.866360238548194e-08</v>
+        <v>-0.1653748095824866</v>
       </c>
     </row>
     <row r="362">
@@ -11075,16 +11101,16 @@
         <v>114.98</v>
       </c>
       <c r="E362" t="n">
-        <v>-90.18000000000001</v>
+        <v>-19.505</v>
       </c>
       <c r="F362" t="n">
-        <v>113.6660013709383</v>
+        <v>112.8391878624851</v>
       </c>
       <c r="G362" t="n">
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>1.814440166001471e-07</v>
+        <v>-0.1653638518532643</v>
       </c>
     </row>
     <row r="363">
@@ -11103,16 +11129,16 @@
         <v>111.81</v>
       </c>
       <c r="E363" t="n">
-        <v>-129.75</v>
+        <v>-48.986</v>
       </c>
       <c r="F363" t="n">
-        <v>110.5310011974309</v>
+        <v>109.70417805241</v>
       </c>
       <c r="G363" t="n">
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>1.814440166001471e-07</v>
+        <v>-0.1653638518532643</v>
       </c>
     </row>
     <row r="364">
@@ -11131,16 +11157,16 @@
         <v>115.74</v>
       </c>
       <c r="E364" t="n">
-        <v>-113.1</v>
+        <v>-36.44</v>
       </c>
       <c r="F364" t="n">
-        <v>114.4715006685419</v>
+        <v>113.6446754914634</v>
       </c>
       <c r="G364" t="n">
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>1.814440166001471e-07</v>
+        <v>-0.1653638518532643</v>
       </c>
     </row>
     <row r="365">
@@ -11159,16 +11185,16 @@
         <v>120.12</v>
       </c>
       <c r="E365" t="n">
-        <v>-101.07</v>
+        <v>-29.177</v>
       </c>
       <c r="F365" t="n">
-        <v>118.8075007844863</v>
+        <v>117.9806831375847</v>
       </c>
       <c r="G365" t="n">
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>1.814440166001471e-07</v>
+        <v>-0.1653638518532643</v>
       </c>
     </row>
     <row r="366">
@@ -11187,16 +11213,16 @@
         <v>111.33</v>
       </c>
       <c r="E366" t="n">
-        <v>-106.62</v>
+        <v>-30.905</v>
       </c>
       <c r="F366" t="n">
-        <v>110.0430008283725</v>
+        <v>109.2161905393426</v>
       </c>
       <c r="G366" t="n">
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>1.814440166001471e-07</v>
+        <v>-0.1653638518532643</v>
       </c>
     </row>
     <row r="367">
@@ -11215,16 +11241,16 @@
         <v>120.4</v>
       </c>
       <c r="E367" t="n">
-        <v>-100.9</v>
+        <v>-28.893</v>
       </c>
       <c r="F367" t="n">
-        <v>119.0885004729909</v>
+        <v>118.2616939734671</v>
       </c>
       <c r="G367" t="n">
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>1.814440166001471e-07</v>
+        <v>-0.1653638518532643</v>
       </c>
     </row>
     <row r="368">
@@ -11243,16 +11269,16 @@
         <v>116.34</v>
       </c>
       <c r="E368" t="n">
-        <v>-112.27</v>
+        <v>-35.874</v>
       </c>
       <c r="F368" t="n">
-        <v>115.0390011361938</v>
+        <v>114.2121875978232</v>
       </c>
       <c r="G368" t="n">
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>1.814440166001471e-07</v>
+        <v>-0.1653638518532643</v>
       </c>
     </row>
     <row r="369">
@@ -11271,16 +11297,16 @@
         <v>110.15</v>
       </c>
       <c r="E369" t="n">
-        <v>-97.58999999999999</v>
+        <v>-25.877</v>
       </c>
       <c r="F369" t="n">
-        <v>108.7910013215411</v>
+        <v>107.964177045747</v>
       </c>
       <c r="G369" t="n">
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>1.814440166001471e-07</v>
+        <v>-0.1653638518532643</v>
       </c>
     </row>
     <row r="370">
@@ -11299,16 +11325,16 @@
         <v>115.21</v>
       </c>
       <c r="E370" t="n">
-        <v>-104.61</v>
+        <v>-29.255</v>
       </c>
       <c r="F370" t="n">
-        <v>113.9105015034152</v>
+        <v>113.0836828729228</v>
       </c>
       <c r="G370" t="n">
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>1.814440166001471e-07</v>
+        <v>-0.1653638518532643</v>
       </c>
     </row>
     <row r="371">
@@ -11327,16 +11353,16 @@
         <v>110.18</v>
       </c>
       <c r="E371" t="n">
-        <v>-110.88</v>
+        <v>-34.31</v>
       </c>
       <c r="F371" t="n">
-        <v>108.8550000290185</v>
+        <v>108.0281754711649</v>
       </c>
       <c r="G371" t="n">
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>1.814440166001471e-07</v>
+        <v>-0.1653638518532643</v>
       </c>
     </row>
     <row r="372">
@@ -11355,16 +11381,16 @@
         <v>113.71</v>
       </c>
       <c r="E372" t="n">
-        <v>-111.59</v>
+        <v>-34.189</v>
       </c>
       <c r="F372" t="n">
-        <v>112.4533619857626</v>
+        <v>111.6264240785058</v>
       </c>
       <c r="G372" t="n">
-        <v>0.01452263404389544</v>
+        <v>0.01680481748164898</v>
       </c>
       <c r="H372" t="n">
-        <v>1.814440166001471e-07</v>
+        <v>-0.1653638518532643</v>
       </c>
     </row>
     <row r="373">
@@ -11383,16 +11409,16 @@
         <v>102.93</v>
       </c>
       <c r="E373" t="n">
-        <v>-109.3</v>
+        <v>-34.281</v>
       </c>
       <c r="F373" t="n">
-        <v>101.7205004101178</v>
+        <v>100.89367780774</v>
       </c>
       <c r="G373" t="n">
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>1.814440166001471e-07</v>
+        <v>-0.1653638518532643</v>
       </c>
     </row>
     <row r="374">
@@ -11411,16 +11437,16 @@
         <v>103.88</v>
       </c>
       <c r="E374" t="n">
-        <v>-106.03</v>
+        <v>-29.736</v>
       </c>
       <c r="F374" t="n">
-        <v>102.602001124354</v>
+        <v>101.775169816917</v>
       </c>
       <c r="G374" t="n">
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>1.814440166001471e-07</v>
+        <v>-0.1653638518532643</v>
       </c>
     </row>
     <row r="375">
@@ -11439,16 +11465,380 @@
         <v>67.94</v>
       </c>
       <c r="E375" t="n">
-        <v>-27.36000000000001</v>
+        <v>-7.36</v>
       </c>
       <c r="F375" t="n">
-        <v>66.51950128582064</v>
+        <v>65.69268768955725</v>
       </c>
       <c r="G375" t="n">
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>1.814440166001471e-07</v>
+        <v>-0.1653638518532643</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>18</v>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>普通企业</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>114.98</v>
+      </c>
+      <c r="E376" t="n">
+        <v>-19.505</v>
+      </c>
+      <c r="F376" t="n">
+        <v>112.8392448618006</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0</v>
+      </c>
+      <c r="H376" t="n">
+        <v>-0.1653542127570757</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>18</v>
+      </c>
+      <c r="B377" t="n">
+        <v>2</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>普通企业</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>111.81</v>
+      </c>
+      <c r="E377" t="n">
+        <v>-48.986</v>
+      </c>
+      <c r="F377" t="n">
+        <v>109.7042278566394</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0</v>
+      </c>
+      <c r="H377" t="n">
+        <v>-0.1653542127570757</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>18</v>
+      </c>
+      <c r="B378" t="n">
+        <v>3</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>普通企业</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>115.74</v>
+      </c>
+      <c r="E378" t="n">
+        <v>-36.44</v>
+      </c>
+      <c r="F378" t="n">
+        <v>113.6447193233892</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0</v>
+      </c>
+      <c r="H378" t="n">
+        <v>-0.1653542127570757</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>18</v>
+      </c>
+      <c r="B379" t="n">
+        <v>4</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>普通企业</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>120.12</v>
+      </c>
+      <c r="E379" t="n">
+        <v>-29.177</v>
+      </c>
+      <c r="F379" t="n">
+        <v>117.9807398304644</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0</v>
+      </c>
+      <c r="H379" t="n">
+        <v>-0.1653542127570757</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>18</v>
+      </c>
+      <c r="B380" t="n">
+        <v>5</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>普通企业</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>111.33</v>
+      </c>
+      <c r="E380" t="n">
+        <v>-30.905</v>
+      </c>
+      <c r="F380" t="n">
+        <v>109.216222920812</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0</v>
+      </c>
+      <c r="H380" t="n">
+        <v>-0.1653542127570757</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>18</v>
+      </c>
+      <c r="B381" t="n">
+        <v>7</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>普通企业</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>120.4</v>
+      </c>
+      <c r="E381" t="n">
+        <v>-28.893</v>
+      </c>
+      <c r="F381" t="n">
+        <v>118.2617313927229</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0</v>
+      </c>
+      <c r="H381" t="n">
+        <v>-0.1653542127570757</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>18</v>
+      </c>
+      <c r="B382" t="n">
+        <v>8</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>普通企业</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>116.34</v>
+      </c>
+      <c r="E382" t="n">
+        <v>-35.874</v>
+      </c>
+      <c r="F382" t="n">
+        <v>114.2122190447754</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0</v>
+      </c>
+      <c r="H382" t="n">
+        <v>-0.1653542127570757</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>18</v>
+      </c>
+      <c r="B383" t="n">
+        <v>9</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>普通企业</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>110.15</v>
+      </c>
+      <c r="E383" t="n">
+        <v>-25.877</v>
+      </c>
+      <c r="F383" t="n">
+        <v>107.9642394905113</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0</v>
+      </c>
+      <c r="H383" t="n">
+        <v>-0.1653542127570757</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>18</v>
+      </c>
+      <c r="B384" t="n">
+        <v>10</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>普通企业</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>115.21</v>
+      </c>
+      <c r="E384" t="n">
+        <v>-29.255</v>
+      </c>
+      <c r="F384" t="n">
+        <v>113.0837140134392</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0</v>
+      </c>
+      <c r="H384" t="n">
+        <v>-0.1653542127570757</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>18</v>
+      </c>
+      <c r="B385" t="n">
+        <v>11</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>普通企业</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>110.18</v>
+      </c>
+      <c r="E385" t="n">
+        <v>-34.31</v>
+      </c>
+      <c r="F385" t="n">
+        <v>108.0282309230916</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0</v>
+      </c>
+      <c r="H385" t="n">
+        <v>-0.1653542127570757</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>18</v>
+      </c>
+      <c r="B386" t="n">
+        <v>14</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>普通企业</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>102.93</v>
+      </c>
+      <c r="E386" t="n">
+        <v>-34.281</v>
+      </c>
+      <c r="F386" t="n">
+        <v>100.8936942546091</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0</v>
+      </c>
+      <c r="H386" t="n">
+        <v>-0.1653542127570757</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>18</v>
+      </c>
+      <c r="B387" t="n">
+        <v>15</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>关键企业</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>103.88</v>
+      </c>
+      <c r="E387" t="n">
+        <v>-29.736</v>
+      </c>
+      <c r="F387" t="n">
+        <v>101.7746168535522</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.01264868152403054</v>
+      </c>
+      <c r="H387" t="n">
+        <v>-0.1653542127570757</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>18</v>
+      </c>
+      <c r="B388" t="n">
+        <v>20</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>普通企业</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>67.94</v>
+      </c>
+      <c r="E388" t="n">
+        <v>-7.36</v>
+      </c>
+      <c r="F388" t="n">
+        <v>65.6927665928184</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0</v>
+      </c>
+      <c r="H388" t="n">
+        <v>-0.1653542127570757</v>
       </c>
     </row>
   </sheetData>

--- a/Case3_全流程结果.xlsx
+++ b/Case3_全流程结果.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,30 +447,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>关键企业类型</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>关键企业入度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>关键企业出度</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>关键企业初始排放e</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>关键企业净流出r</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>关键企业μ</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>关键企业η</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>关键企业α</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>初始补贴S</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>初始配额E</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Gamma</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>关键企业获补</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>关键企业决策排放(q)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>市场碳价</t>
         </is>
@@ -483,22 +523,48 @@
       <c r="B2" t="n">
         <v>28</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>下游</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90.83</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3391</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="K2" t="n">
         <v>50</v>
       </c>
-      <c r="D2" t="n">
+      <c r="L2" t="n">
         <v>2250</v>
       </c>
-      <c r="E2" t="n">
+      <c r="M2" t="n">
         <v>0.5369106699833038</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
         <v>26.84553349916519</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>33.37068470895948</v>
       </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
         <v>-0.1810298412907043</v>
       </c>
     </row>
@@ -509,22 +575,48 @@
       <c r="B3" t="n">
         <v>23</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>75.34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2722</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0863</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.399183927</v>
+      </c>
+      <c r="K3" t="n">
         <v>23.15446650083481</v>
       </c>
-      <c r="D3" t="n">
+      <c r="L3" t="n">
         <v>2125.79931529104</v>
       </c>
-      <c r="E3" t="n">
+      <c r="M3" t="n">
         <v>0.4494495282884979</v>
       </c>
-      <c r="F3" t="n">
+      <c r="N3" t="n">
         <v>10.40676404657203</v>
       </c>
-      <c r="G3" t="n">
+      <c r="O3" t="n">
         <v>72.40693304021784</v>
       </c>
-      <c r="H3" t="n">
+      <c r="P3" t="n">
         <v>-0.1762657337989792</v>
       </c>
     </row>
@@ -535,22 +627,48 @@
       <c r="B4" t="n">
         <v>30</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>下游</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36.04</v>
+      </c>
+      <c r="G4" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3297</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1035</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.368545982</v>
+      </c>
+      <c r="K4" t="n">
         <v>12.74770245426278</v>
       </c>
-      <c r="D4" t="n">
+      <c r="L4" t="n">
         <v>2051.762382250823</v>
       </c>
-      <c r="E4" t="n">
+      <c r="M4" t="n">
         <v>0.4149854950263445</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
         <v>5.290111613430786</v>
       </c>
-      <c r="G4" t="n">
+      <c r="O4" t="n">
         <v>32.80227110875411</v>
       </c>
-      <c r="H4" t="n">
+      <c r="P4" t="n">
         <v>-0.1710228249590129</v>
       </c>
     </row>
@@ -561,22 +679,48 @@
       <c r="B5" t="n">
         <v>21</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>82.33</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3025</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1207</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.337908036</v>
+      </c>
+      <c r="K5" t="n">
         <v>7.457590840831992</v>
       </c>
-      <c r="D5" t="n">
+      <c r="L5" t="n">
         <v>1976.360111142068</v>
       </c>
-      <c r="E5" t="n">
+      <c r="M5" t="n">
         <v>0.3510097698187835</v>
       </c>
-      <c r="F5" t="n">
+      <c r="N5" t="n">
         <v>2.617687244443106</v>
       </c>
-      <c r="G5" t="n">
+      <c r="O5" t="n">
         <v>79.80926433240306</v>
       </c>
-      <c r="H5" t="n">
+      <c r="P5" t="n">
         <v>-0.1698438041532285</v>
       </c>
     </row>
@@ -587,22 +731,48 @@
       <c r="B6" t="n">
         <v>27</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>下游</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>55.43</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3315</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1207</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.337908036</v>
+      </c>
+      <c r="K6" t="n">
         <v>4.839903596388886</v>
       </c>
-      <c r="D6" t="n">
+      <c r="L6" t="n">
         <v>1896.840846809665</v>
       </c>
-      <c r="E6" t="n">
+      <c r="M6" t="n">
         <v>0.3582989401300637</v>
       </c>
-      <c r="F6" t="n">
+      <c r="N6" t="n">
         <v>1.734132328917821</v>
       </c>
-      <c r="G6" t="n">
+      <c r="O6" t="n">
         <v>28.98063436977529</v>
       </c>
-      <c r="H6" t="n">
+      <c r="P6" t="n">
         <v>-0.1677427806537938</v>
       </c>
     </row>
@@ -613,22 +783,48 @@
       <c r="B7" t="n">
         <v>29</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>下游</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>46.14</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3238</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1207</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.337908036</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.105771267471065</v>
       </c>
-      <c r="D7" t="n">
+      <c r="L7" t="n">
         <v>1812.43021243989</v>
       </c>
-      <c r="E7" t="n">
+      <c r="M7" t="n">
         <v>0.3526808931782132</v>
       </c>
-      <c r="F7" t="n">
+      <c r="N7" t="n">
         <v>1.095346184618926</v>
       </c>
-      <c r="G7" t="n">
+      <c r="O7" t="n">
         <v>31.88987763648439</v>
       </c>
-      <c r="H7" t="n">
+      <c r="P7" t="n">
         <v>-0.1664723338900194</v>
       </c>
     </row>
@@ -639,22 +835,48 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上游</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>111.33</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-43.967</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2637</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.307091964</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.010425082852139</v>
       </c>
-      <c r="D8" t="n">
+      <c r="L8" t="n">
         <v>1734.400334803406</v>
       </c>
-      <c r="E8" t="n">
+      <c r="M8" t="n">
         <v>0.3097633851841273</v>
       </c>
-      <c r="F8" t="n">
+      <c r="N8" t="n">
         <v>0.6227560793233581</v>
       </c>
-      <c r="G8" t="n">
+      <c r="O8" t="n">
         <v>109.1523237967153</v>
       </c>
-      <c r="H8" t="n">
+      <c r="P8" t="n">
         <v>-0.1662391355983818</v>
       </c>
     </row>
@@ -665,22 +887,48 @@
       <c r="B9" t="n">
         <v>16</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>72.19</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-12.87</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2934</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.307091964</v>
+      </c>
+      <c r="K9" t="n">
         <v>1.387669003528781</v>
       </c>
-      <c r="D9" t="n">
+      <c r="L9" t="n">
         <v>1669.21501100669</v>
       </c>
-      <c r="E9" t="n">
+      <c r="M9" t="n">
         <v>0.309241048234942</v>
       </c>
-      <c r="F9" t="n">
+      <c r="N9" t="n">
         <v>0.4291242172543775</v>
       </c>
-      <c r="G9" t="n">
+      <c r="O9" t="n">
         <v>69.86334969179464</v>
       </c>
-      <c r="H9" t="n">
+      <c r="P9" t="n">
         <v>-0.16598058376636</v>
       </c>
     </row>
@@ -691,22 +939,48 @@
       <c r="B10" t="n">
         <v>25</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-15.29</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2754</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.307091964</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.9585447862744032</v>
       </c>
-      <c r="D10" t="n">
+      <c r="L10" t="n">
         <v>1612.221661314896</v>
       </c>
-      <c r="E10" t="n">
+      <c r="M10" t="n">
         <v>0.3094015832626499</v>
       </c>
-      <c r="F10" t="n">
+      <c r="N10" t="n">
         <v>0.2965752745014587</v>
       </c>
-      <c r="G10" t="n">
+      <c r="O10" t="n">
         <v>70.05350478510348</v>
       </c>
-      <c r="H10" t="n">
+      <c r="P10" t="n">
         <v>-0.1657938451208516</v>
       </c>
     </row>
@@ -717,22 +991,48 @@
       <c r="B11" t="n">
         <v>26</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>75.55</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2868</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.307091964</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.6619695117729445</v>
       </c>
-      <c r="D11" t="n">
+      <c r="L11" t="n">
         <v>1557.458156529792</v>
       </c>
-      <c r="E11" t="n">
+      <c r="M11" t="n">
         <v>0.3081363284321346</v>
       </c>
-      <c r="F11" t="n">
+      <c r="N11" t="n">
         <v>0.2039768548917278</v>
       </c>
-      <c r="G11" t="n">
+      <c r="O11" t="n">
         <v>73.27416486025081</v>
       </c>
-      <c r="H11" t="n">
+      <c r="P11" t="n">
         <v>-0.1656651810405926</v>
       </c>
     </row>
@@ -743,22 +1043,48 @@
       <c r="B12" t="n">
         <v>17</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>69.94</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2781</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1552</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.276454018</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.4579926568812167</v>
       </c>
-      <c r="D12" t="n">
+      <c r="L12" t="n">
         <v>1485.183991669541</v>
       </c>
-      <c r="E12" t="n">
+      <c r="M12" t="n">
         <v>0.2771202223700359</v>
       </c>
-      <c r="F12" t="n">
+      <c r="N12" t="n">
         <v>0.1269190269187663</v>
       </c>
-      <c r="G12" t="n">
+      <c r="O12" t="n">
         <v>67.71253980687649</v>
       </c>
-      <c r="H12" t="n">
+      <c r="P12" t="n">
         <v>-0.1655743490845955</v>
       </c>
     </row>
@@ -769,22 +1095,48 @@
       <c r="B13" t="n">
         <v>18</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>76.56999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2859</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1552</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.276454018</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.3310736299624504</v>
       </c>
-      <c r="D13" t="n">
+      <c r="L13" t="n">
         <v>1406.001451862665</v>
       </c>
-      <c r="E13" t="n">
+      <c r="M13" t="n">
         <v>0.2774845580341005</v>
       </c>
-      <c r="F13" t="n">
+      <c r="N13" t="n">
         <v>0.0918678198868759</v>
       </c>
-      <c r="G13" t="n">
+      <c r="O13" t="n">
         <v>74.30693782073615</v>
       </c>
-      <c r="H13" t="n">
+      <c r="P13" t="n">
         <v>-0.1655110441462332</v>
       </c>
     </row>
@@ -795,22 +1147,48 @@
       <c r="B14" t="n">
         <v>19</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>70.45999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-9.630000000000001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2902</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1552</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.276454018</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.2392058100755745</v>
       </c>
-      <c r="D14" t="n">
+      <c r="L14" t="n">
         <v>1327.254514041929</v>
       </c>
-      <c r="E14" t="n">
+      <c r="M14" t="n">
         <v>0.2770238755396248</v>
       </c>
-      <c r="F14" t="n">
+      <c r="N14" t="n">
         <v>0.06626572055873108</v>
       </c>
-      <c r="G14" t="n">
+      <c r="O14" t="n">
         <v>68.17700179543615</v>
       </c>
-      <c r="H14" t="n">
+      <c r="P14" t="n">
         <v>-0.1654587065952123</v>
       </c>
     </row>
@@ -821,22 +1199,48 @@
       <c r="B15" t="n">
         <v>22</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>73.87</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1552</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.276454018</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.1729400895168434</v>
       </c>
-      <c r="D15" t="n">
+      <c r="L15" t="n">
         <v>1268.707512246493</v>
       </c>
-      <c r="E15" t="n">
+      <c r="M15" t="n">
         <v>0.2764539980010458</v>
       </c>
-      <c r="F15" t="n">
+      <c r="N15" t="n">
         <v>0.0478099791615901</v>
       </c>
-      <c r="G15" t="n">
+      <c r="O15" t="n">
         <v>71.58964596668932</v>
       </c>
-      <c r="H15" t="n">
+      <c r="P15" t="n">
         <v>-0.1654206078175177</v>
       </c>
     </row>
@@ -847,22 +1251,48 @@
       <c r="B16" t="n">
         <v>24</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>67.88</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-11.99</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1552</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.276454018</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.1251301103552533</v>
       </c>
-      <c r="D16" t="n">
+      <c r="L16" t="n">
         <v>1185.997866279803</v>
       </c>
-      <c r="E16" t="n">
+      <c r="M16" t="n">
         <v>0.2764615445684067</v>
       </c>
-      <c r="F16" t="n">
+      <c r="N16" t="n">
         <v>0.0345936635808285</v>
       </c>
-      <c r="G16" t="n">
+      <c r="O16" t="n">
         <v>65.44048627512589</v>
       </c>
-      <c r="H16" t="n">
+      <c r="P16" t="n">
         <v>-0.1653885696466292</v>
       </c>
     </row>
@@ -873,22 +1303,48 @@
       <c r="B17" t="n">
         <v>12</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上游</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>110.17</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-55.697</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2465</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.245637945</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.09053644677442478</v>
       </c>
-      <c r="D17" t="n">
+      <c r="L17" t="n">
         <v>1132.547380004677</v>
       </c>
-      <c r="E17" t="n">
+      <c r="M17" t="n">
         <v>0.245629270855295</v>
       </c>
-      <c r="F17" t="n">
+      <c r="N17" t="n">
         <v>0.02223840140703118</v>
       </c>
-      <c r="G17" t="n">
+      <c r="O17" t="n">
         <v>108.1095885675463</v>
       </c>
-      <c r="H17" t="n">
+      <c r="P17" t="n">
         <v>-0.1653748095824866</v>
       </c>
     </row>
@@ -899,22 +1355,48 @@
       <c r="B18" t="n">
         <v>13</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上游</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>113.71</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-34.189</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.245637945</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.0682980453673936</v>
       </c>
-      <c r="D18" t="n">
+      <c r="L18" t="n">
         <v>1080.134791437131</v>
       </c>
-      <c r="E18" t="n">
+      <c r="M18" t="n">
         <v>0.2460512213966203</v>
       </c>
-      <c r="F18" t="n">
+      <c r="N18" t="n">
         <v>0.01680481748164898</v>
       </c>
-      <c r="G18" t="n">
+      <c r="O18" t="n">
         <v>111.6264240785058</v>
       </c>
-      <c r="H18" t="n">
+      <c r="P18" t="n">
         <v>-0.1653638518532643</v>
       </c>
     </row>
@@ -925,22 +1407,48 @@
       <c r="B19" t="n">
         <v>15</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上游</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>103.88</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-29.736</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.245637945</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.05149322788574463</v>
       </c>
-      <c r="D19" t="n">
+      <c r="L19" t="n">
         <v>1002.697367358625</v>
       </c>
-      <c r="E19" t="n">
+      <c r="M19" t="n">
         <v>0.2456377672049609</v>
       </c>
-      <c r="F19" t="n">
+      <c r="N19" t="n">
         <v>0.01264868152403054</v>
       </c>
-      <c r="G19" t="n">
+      <c r="O19" t="n">
         <v>101.7746168535522</v>
       </c>
-      <c r="H19" t="n">
+      <c r="P19" t="n">
         <v>-0.1653542127570757</v>
       </c>
     </row>
